--- a/Results/result-language-results.xlsx
+++ b/Results/result-language-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CE93F8D9-8CAA-8C42-95D6-1789FBF56B30}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D9B6F02-AD33-A34B-BFA1-0D6F67ACF3F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2140" windowWidth="19180" windowHeight="16440" activeTab="7"/>
+    <workbookView xWindow="2060" yWindow="860" windowWidth="19180" windowHeight="16440" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="beecount" sheetId="3" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="editor" sheetId="7" r:id="rId6"/>
     <sheet name="primary" sheetId="8" r:id="rId7"/>
     <sheet name="total" sheetId="10" r:id="rId8"/>
+    <sheet name="data" sheetId="11" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="519">
   <si>
     <t>Class</t>
   </si>
@@ -4860,8 +4861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D61" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -5902,8 +5903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D61" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6953,8 +6954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -8183,8 +8184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D61" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9234,8 +9235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D61" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10282,8 +10283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D61" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11328,8 +11329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:K7"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12374,7 +12375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="D8" sqref="A1:D8"/>
     </sheetView>
   </sheetViews>
@@ -12523,4 +12524,4654 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C421"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362:C421"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" s="7">
+        <v>6</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="7">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7">
+        <v>6</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="7">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" s="7">
+        <v>6</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="7">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="9">
+        <v>3</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" s="9">
+        <v>3</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" s="9">
+        <v>3</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="19">
+        <v>3</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="19">
+        <v>3</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" s="19">
+        <v>3</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="19">
+        <v>3</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" s="19">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" s="19">
+        <v>6</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" s="19">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" s="19">
+        <v>6</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" s="19">
+        <v>6</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" s="19">
+        <v>6</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" s="19">
+        <v>6</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="19">
+        <v>6</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="19">
+        <v>6</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" s="19">
+        <v>6</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" s="19">
+        <v>1</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" s="19">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54" s="19">
+        <v>1</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" s="19">
+        <v>1</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" s="19">
+        <v>1</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="19">
+        <v>1</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" s="19">
+        <v>1</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="19">
+        <v>1</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="19">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61" s="19">
+        <v>1</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" s="7">
+        <v>3</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" s="7">
+        <v>3</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" s="7">
+        <v>3</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" s="7">
+        <v>3</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" s="7">
+        <v>3</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" s="7">
+        <v>3</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="7">
+        <v>3</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="7">
+        <v>3</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>3</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" s="7">
+        <v>3</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" s="7">
+        <v>1</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" s="7">
+        <v>1</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" s="7">
+        <v>1</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" s="7">
+        <v>1</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" s="7">
+        <v>1</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" s="7">
+        <v>6</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" s="7">
+        <v>6</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" s="7">
+        <v>6</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" s="7">
+        <v>6</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" s="7">
+        <v>6</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" s="7">
+        <v>6</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" s="7">
+        <v>6</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" s="7">
+        <v>6</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" s="7">
+        <v>6</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" s="7">
+        <v>6</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" s="7">
+        <v>3</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" s="7">
+        <v>3</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" s="9">
+        <v>3</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95" s="9">
+        <v>3</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" s="9">
+        <v>3</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="17">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" s="9">
+        <v>3</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" s="19">
+        <v>3</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" s="19">
+        <v>3</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" s="19">
+        <v>3</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" s="19">
+        <v>3</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" s="19">
+        <v>6</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" s="19">
+        <v>6</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="17">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" s="19">
+        <v>6</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105" s="19">
+        <v>6</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" s="19">
+        <v>6</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" s="19">
+        <v>6</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" s="19">
+        <v>6</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109" s="19">
+        <v>6</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="17">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" s="19">
+        <v>6</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="17">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" s="19">
+        <v>6</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="17">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" s="19">
+        <v>1</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" s="19">
+        <v>1</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" s="19">
+        <v>1</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115" s="19">
+        <v>1</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" s="19">
+        <v>1</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="17">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" s="19">
+        <v>1</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="17">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" s="19">
+        <v>1</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="17">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" s="19">
+        <v>1</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="17">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" s="19">
+        <v>1</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="17">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" s="19">
+        <v>1</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="20">
+      <c r="A122" s="4">
+        <v>0</v>
+      </c>
+      <c r="B122" s="7">
+        <v>3</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="20">
+      <c r="A123" s="4">
+        <v>1</v>
+      </c>
+      <c r="B123" s="7">
+        <v>3</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="20">
+      <c r="A124" s="4">
+        <v>0</v>
+      </c>
+      <c r="B124" s="7">
+        <v>3</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="20">
+      <c r="A125" s="4">
+        <v>0</v>
+      </c>
+      <c r="B125" s="7">
+        <v>3</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="20">
+      <c r="A126" s="4">
+        <v>1</v>
+      </c>
+      <c r="B126" s="7">
+        <v>3</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="20">
+      <c r="A127" s="4">
+        <v>1</v>
+      </c>
+      <c r="B127" s="7">
+        <v>3</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="20">
+      <c r="A128" s="4">
+        <v>1</v>
+      </c>
+      <c r="B128" s="7">
+        <v>3</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="20">
+      <c r="A129" s="4">
+        <v>1</v>
+      </c>
+      <c r="B129" s="7">
+        <v>3</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="20">
+      <c r="A130" s="4">
+        <v>1</v>
+      </c>
+      <c r="B130" s="7">
+        <v>3</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="20">
+      <c r="A131" s="4">
+        <v>1</v>
+      </c>
+      <c r="B131" s="7">
+        <v>3</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="20">
+      <c r="A132" s="4">
+        <v>0</v>
+      </c>
+      <c r="B132" s="7">
+        <v>1</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="20">
+      <c r="A133" s="4">
+        <v>0</v>
+      </c>
+      <c r="B133" s="7">
+        <v>1</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="20">
+      <c r="A134" s="4">
+        <v>0</v>
+      </c>
+      <c r="B134" s="7">
+        <v>1</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="20">
+      <c r="A135" s="4">
+        <v>0</v>
+      </c>
+      <c r="B135" s="7">
+        <v>1</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="20">
+      <c r="A136" s="4">
+        <v>0</v>
+      </c>
+      <c r="B136" s="7">
+        <v>1</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="20">
+      <c r="A137" s="4">
+        <v>1</v>
+      </c>
+      <c r="B137" s="7">
+        <v>1</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="20">
+      <c r="A138" s="4">
+        <v>1</v>
+      </c>
+      <c r="B138" s="7">
+        <v>1</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="20">
+      <c r="A139" s="4">
+        <v>1</v>
+      </c>
+      <c r="B139" s="7">
+        <v>1</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="20">
+      <c r="A140" s="4">
+        <v>0</v>
+      </c>
+      <c r="B140" s="7">
+        <v>1</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="20">
+      <c r="A141" s="4">
+        <v>0</v>
+      </c>
+      <c r="B141" s="7">
+        <v>1</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="20">
+      <c r="A142" s="4">
+        <v>0</v>
+      </c>
+      <c r="B142" s="7">
+        <v>6</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="20">
+      <c r="A143" s="4">
+        <v>1</v>
+      </c>
+      <c r="B143" s="7">
+        <v>6</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="20">
+      <c r="A144" s="4">
+        <v>0</v>
+      </c>
+      <c r="B144" s="7">
+        <v>6</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="20">
+      <c r="A145" s="4">
+        <v>0</v>
+      </c>
+      <c r="B145" s="7">
+        <v>6</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="20">
+      <c r="A146" s="4">
+        <v>1</v>
+      </c>
+      <c r="B146" s="7">
+        <v>6</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="20">
+      <c r="A147" s="4">
+        <v>1</v>
+      </c>
+      <c r="B147" s="7">
+        <v>6</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="20">
+      <c r="A148" s="4">
+        <v>1</v>
+      </c>
+      <c r="B148" s="7">
+        <v>6</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="20">
+      <c r="A149" s="4">
+        <v>1</v>
+      </c>
+      <c r="B149" s="7">
+        <v>6</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="20">
+      <c r="A150" s="4">
+        <v>1</v>
+      </c>
+      <c r="B150" s="7">
+        <v>6</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="20">
+      <c r="A151" s="4">
+        <v>1</v>
+      </c>
+      <c r="B151" s="7">
+        <v>6</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="20">
+      <c r="A152" s="4">
+        <v>0</v>
+      </c>
+      <c r="B152" s="7">
+        <v>3</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="20">
+      <c r="A153" s="4">
+        <v>1</v>
+      </c>
+      <c r="B153" s="7">
+        <v>3</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="20">
+      <c r="A154" s="4">
+        <v>0</v>
+      </c>
+      <c r="B154" s="9">
+        <v>3</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="20">
+      <c r="A155" s="4">
+        <v>0</v>
+      </c>
+      <c r="B155" s="9">
+        <v>3</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="20">
+      <c r="A156" s="4">
+        <v>1</v>
+      </c>
+      <c r="B156" s="9">
+        <v>3</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="20">
+      <c r="A157" s="4">
+        <v>1</v>
+      </c>
+      <c r="B157" s="9">
+        <v>3</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="20">
+      <c r="A158" s="4">
+        <v>1</v>
+      </c>
+      <c r="B158" s="19">
+        <v>3</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="20">
+      <c r="A159" s="4">
+        <v>1</v>
+      </c>
+      <c r="B159" s="19">
+        <v>3</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="20">
+      <c r="A160" s="4">
+        <v>1</v>
+      </c>
+      <c r="B160" s="19">
+        <v>3</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="20">
+      <c r="A161" s="4">
+        <v>1</v>
+      </c>
+      <c r="B161" s="19">
+        <v>3</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="20">
+      <c r="A162" s="4">
+        <v>0</v>
+      </c>
+      <c r="B162" s="19">
+        <v>6</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="20">
+      <c r="A163" s="4">
+        <v>1</v>
+      </c>
+      <c r="B163" s="19">
+        <v>6</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="20">
+      <c r="A164" s="4">
+        <v>0</v>
+      </c>
+      <c r="B164" s="19">
+        <v>6</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="20">
+      <c r="A165" s="4">
+        <v>0</v>
+      </c>
+      <c r="B165" s="19">
+        <v>6</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="20">
+      <c r="A166" s="4">
+        <v>1</v>
+      </c>
+      <c r="B166" s="19">
+        <v>6</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="20">
+      <c r="A167" s="4">
+        <v>1</v>
+      </c>
+      <c r="B167" s="19">
+        <v>6</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="20">
+      <c r="A168" s="4">
+        <v>1</v>
+      </c>
+      <c r="B168" s="19">
+        <v>6</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="20">
+      <c r="A169" s="4">
+        <v>1</v>
+      </c>
+      <c r="B169" s="19">
+        <v>6</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="20">
+      <c r="A170" s="4">
+        <v>1</v>
+      </c>
+      <c r="B170" s="19">
+        <v>6</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="20">
+      <c r="A171" s="4">
+        <v>1</v>
+      </c>
+      <c r="B171" s="19">
+        <v>6</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="20">
+      <c r="A172" s="4">
+        <v>0</v>
+      </c>
+      <c r="B172" s="19">
+        <v>1</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="20">
+      <c r="A173" s="4">
+        <v>0</v>
+      </c>
+      <c r="B173" s="19">
+        <v>1</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="20">
+      <c r="A174" s="4">
+        <v>0</v>
+      </c>
+      <c r="B174" s="19">
+        <v>1</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="20">
+      <c r="A175" s="4">
+        <v>0</v>
+      </c>
+      <c r="B175" s="19">
+        <v>1</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="20">
+      <c r="A176" s="4">
+        <v>0</v>
+      </c>
+      <c r="B176" s="19">
+        <v>1</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="20">
+      <c r="A177" s="4">
+        <v>1</v>
+      </c>
+      <c r="B177" s="19">
+        <v>1</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="20">
+      <c r="A178" s="4">
+        <v>1</v>
+      </c>
+      <c r="B178" s="19">
+        <v>1</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="20">
+      <c r="A179" s="4">
+        <v>1</v>
+      </c>
+      <c r="B179" s="19">
+        <v>1</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="20">
+      <c r="A180" s="4">
+        <v>0</v>
+      </c>
+      <c r="B180" s="19">
+        <v>1</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="20">
+      <c r="A181" s="4">
+        <v>0</v>
+      </c>
+      <c r="B181" s="19">
+        <v>1</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="17">
+      <c r="A182" s="17">
+        <v>1</v>
+      </c>
+      <c r="B182" s="7">
+        <v>3</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="17">
+      <c r="A183" s="17">
+        <v>0</v>
+      </c>
+      <c r="B183" s="7">
+        <v>3</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="17">
+      <c r="A184" s="17">
+        <v>0</v>
+      </c>
+      <c r="B184" s="7">
+        <v>3</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="17">
+      <c r="A185" s="17">
+        <v>1</v>
+      </c>
+      <c r="B185" s="7">
+        <v>3</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="17">
+      <c r="A186" s="17">
+        <v>1</v>
+      </c>
+      <c r="B186" s="7">
+        <v>3</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="17">
+      <c r="A187" s="17">
+        <v>1</v>
+      </c>
+      <c r="B187" s="7">
+        <v>3</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="17">
+      <c r="A188" s="17">
+        <v>1</v>
+      </c>
+      <c r="B188" s="7">
+        <v>3</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="17">
+      <c r="A189" s="17">
+        <v>1</v>
+      </c>
+      <c r="B189" s="7">
+        <v>3</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="17">
+      <c r="A190" s="17">
+        <v>1</v>
+      </c>
+      <c r="B190" s="7">
+        <v>3</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="17">
+      <c r="A191" s="17">
+        <v>1</v>
+      </c>
+      <c r="B191" s="7">
+        <v>3</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="17">
+      <c r="A192" s="17">
+        <v>1</v>
+      </c>
+      <c r="B192" s="7">
+        <v>1</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="17">
+      <c r="A193" s="17">
+        <v>0</v>
+      </c>
+      <c r="B193" s="7">
+        <v>1</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="17">
+      <c r="A194" s="17">
+        <v>0</v>
+      </c>
+      <c r="B194" s="7">
+        <v>1</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="17">
+      <c r="A195" s="17">
+        <v>1</v>
+      </c>
+      <c r="B195" s="7">
+        <v>1</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="17">
+      <c r="A196" s="17">
+        <v>1</v>
+      </c>
+      <c r="B196" s="7">
+        <v>1</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="17">
+      <c r="A197" s="17">
+        <v>1</v>
+      </c>
+      <c r="B197" s="7">
+        <v>1</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="17">
+      <c r="A198" s="17">
+        <v>1</v>
+      </c>
+      <c r="B198" s="7">
+        <v>1</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="17">
+      <c r="A199" s="17">
+        <v>1</v>
+      </c>
+      <c r="B199" s="7">
+        <v>1</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="17">
+      <c r="A200" s="17">
+        <v>0</v>
+      </c>
+      <c r="B200" s="7">
+        <v>1</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="17">
+      <c r="A201" s="17">
+        <v>1</v>
+      </c>
+      <c r="B201" s="7">
+        <v>1</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="17">
+      <c r="A202" s="17">
+        <v>1</v>
+      </c>
+      <c r="B202" s="7">
+        <v>6</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="17">
+      <c r="A203" s="17">
+        <v>1</v>
+      </c>
+      <c r="B203" s="7">
+        <v>6</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="17">
+      <c r="A204" s="17">
+        <v>1</v>
+      </c>
+      <c r="B204" s="7">
+        <v>6</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="17">
+      <c r="A205" s="17">
+        <v>1</v>
+      </c>
+      <c r="B205" s="7">
+        <v>6</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="17">
+      <c r="A206" s="17">
+        <v>0</v>
+      </c>
+      <c r="B206" s="7">
+        <v>6</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="17">
+      <c r="A207" s="17">
+        <v>1</v>
+      </c>
+      <c r="B207" s="7">
+        <v>6</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="17">
+      <c r="A208" s="17">
+        <v>1</v>
+      </c>
+      <c r="B208" s="7">
+        <v>6</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="17">
+      <c r="A209" s="17">
+        <v>1</v>
+      </c>
+      <c r="B209" s="7">
+        <v>6</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="17">
+      <c r="A210" s="17">
+        <v>1</v>
+      </c>
+      <c r="B210" s="7">
+        <v>6</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="17">
+      <c r="A211" s="17">
+        <v>1</v>
+      </c>
+      <c r="B211" s="7">
+        <v>6</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="17">
+      <c r="A212" s="17">
+        <v>1</v>
+      </c>
+      <c r="B212" s="7">
+        <v>3</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="17">
+      <c r="A213" s="17">
+        <v>0</v>
+      </c>
+      <c r="B213" s="7">
+        <v>3</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="17">
+      <c r="A214" s="17">
+        <v>0</v>
+      </c>
+      <c r="B214" s="9">
+        <v>3</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="17">
+      <c r="A215" s="17">
+        <v>1</v>
+      </c>
+      <c r="B215" s="9">
+        <v>3</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="17">
+      <c r="A216" s="17">
+        <v>1</v>
+      </c>
+      <c r="B216" s="9">
+        <v>3</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="17">
+      <c r="A217" s="17">
+        <v>1</v>
+      </c>
+      <c r="B217" s="9">
+        <v>3</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="17">
+      <c r="A218" s="17">
+        <v>1</v>
+      </c>
+      <c r="B218" s="19">
+        <v>3</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="17">
+      <c r="A219" s="17">
+        <v>1</v>
+      </c>
+      <c r="B219" s="19">
+        <v>3</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="17">
+      <c r="A220" s="17">
+        <v>1</v>
+      </c>
+      <c r="B220" s="19">
+        <v>3</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="17">
+      <c r="A221" s="17">
+        <v>1</v>
+      </c>
+      <c r="B221" s="19">
+        <v>3</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="17">
+      <c r="A222" s="17">
+        <v>1</v>
+      </c>
+      <c r="B222" s="19">
+        <v>6</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="17">
+      <c r="A223" s="17">
+        <v>1</v>
+      </c>
+      <c r="B223" s="19">
+        <v>6</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="17">
+      <c r="A224" s="17">
+        <v>1</v>
+      </c>
+      <c r="B224" s="19">
+        <v>6</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="17">
+      <c r="A225" s="17">
+        <v>0</v>
+      </c>
+      <c r="B225" s="19">
+        <v>6</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="17">
+      <c r="A226" s="17">
+        <v>0</v>
+      </c>
+      <c r="B226" s="19">
+        <v>6</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="17">
+      <c r="A227" s="17">
+        <v>1</v>
+      </c>
+      <c r="B227" s="19">
+        <v>6</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="17">
+      <c r="A228" s="17">
+        <v>1</v>
+      </c>
+      <c r="B228" s="19">
+        <v>6</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="17">
+      <c r="A229" s="17">
+        <v>1</v>
+      </c>
+      <c r="B229" s="19">
+        <v>6</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="17">
+      <c r="A230" s="17">
+        <v>0</v>
+      </c>
+      <c r="B230" s="19">
+        <v>6</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="17">
+      <c r="A231" s="17">
+        <v>0</v>
+      </c>
+      <c r="B231" s="19">
+        <v>6</v>
+      </c>
+      <c r="C231" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="17">
+      <c r="A232" s="17">
+        <v>1</v>
+      </c>
+      <c r="B232" s="19">
+        <v>1</v>
+      </c>
+      <c r="C232" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="17">
+      <c r="A233" s="17">
+        <v>0</v>
+      </c>
+      <c r="B233" s="19">
+        <v>1</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="17">
+      <c r="A234" s="17">
+        <v>0</v>
+      </c>
+      <c r="B234" s="19">
+        <v>1</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="17">
+      <c r="A235" s="17">
+        <v>1</v>
+      </c>
+      <c r="B235" s="19">
+        <v>1</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="17">
+      <c r="A236" s="17">
+        <v>1</v>
+      </c>
+      <c r="B236" s="19">
+        <v>1</v>
+      </c>
+      <c r="C236" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="17">
+      <c r="A237" s="17">
+        <v>1</v>
+      </c>
+      <c r="B237" s="19">
+        <v>1</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="17">
+      <c r="A238" s="17">
+        <v>1</v>
+      </c>
+      <c r="B238" s="19">
+        <v>1</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="17">
+      <c r="A239" s="17">
+        <v>1</v>
+      </c>
+      <c r="B239" s="19">
+        <v>1</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="17">
+      <c r="A240" s="17">
+        <v>0</v>
+      </c>
+      <c r="B240" s="19">
+        <v>1</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="17">
+      <c r="A241" s="17">
+        <v>1</v>
+      </c>
+      <c r="B241" s="19">
+        <v>1</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="17">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242" s="7">
+        <v>3</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="17">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243" s="7">
+        <v>3</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="17">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244" s="7">
+        <v>3</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="17">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245" s="7">
+        <v>3</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="17">
+      <c r="A246">
+        <v>0</v>
+      </c>
+      <c r="B246" s="7">
+        <v>3</v>
+      </c>
+      <c r="C246" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="17">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="B247" s="7">
+        <v>3</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="17">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248" s="7">
+        <v>3</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="17">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249" s="7">
+        <v>3</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="17">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250" s="7">
+        <v>3</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="17">
+      <c r="A251">
+        <v>0</v>
+      </c>
+      <c r="B251" s="7">
+        <v>3</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="17">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252" s="7">
+        <v>1</v>
+      </c>
+      <c r="C252" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="17">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253" s="7">
+        <v>1</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="17">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254" s="7">
+        <v>1</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="17">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" s="7">
+        <v>1</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="17">
+      <c r="A256">
+        <v>0</v>
+      </c>
+      <c r="B256" s="7">
+        <v>1</v>
+      </c>
+      <c r="C256" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="17">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257" s="7">
+        <v>1</v>
+      </c>
+      <c r="C257" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="17">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258" s="7">
+        <v>1</v>
+      </c>
+      <c r="C258" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="17">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259" s="7">
+        <v>1</v>
+      </c>
+      <c r="C259" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="17">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260" s="7">
+        <v>1</v>
+      </c>
+      <c r="C260" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="17">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" s="7">
+        <v>1</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="17">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262" s="7">
+        <v>6</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="17">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263" s="7">
+        <v>6</v>
+      </c>
+      <c r="C263" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="17">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264" s="7">
+        <v>6</v>
+      </c>
+      <c r="C264" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="17">
+      <c r="A265">
+        <v>0</v>
+      </c>
+      <c r="B265" s="7">
+        <v>6</v>
+      </c>
+      <c r="C265" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="17">
+      <c r="A266">
+        <v>0</v>
+      </c>
+      <c r="B266" s="7">
+        <v>6</v>
+      </c>
+      <c r="C266" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="17">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267" s="7">
+        <v>6</v>
+      </c>
+      <c r="C267" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="17">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268" s="7">
+        <v>6</v>
+      </c>
+      <c r="C268" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="17">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269" s="7">
+        <v>6</v>
+      </c>
+      <c r="C269" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="17">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270" s="7">
+        <v>6</v>
+      </c>
+      <c r="C270" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="17">
+      <c r="A271">
+        <v>0</v>
+      </c>
+      <c r="B271" s="7">
+        <v>6</v>
+      </c>
+      <c r="C271" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="17">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272" s="7">
+        <v>3</v>
+      </c>
+      <c r="C272" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="17">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273" s="7">
+        <v>3</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="17">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274" s="9">
+        <v>3</v>
+      </c>
+      <c r="C274" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="17">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275" s="9">
+        <v>3</v>
+      </c>
+      <c r="C275" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="17">
+      <c r="A276">
+        <v>0</v>
+      </c>
+      <c r="B276" s="9">
+        <v>3</v>
+      </c>
+      <c r="C276" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="17">
+      <c r="A277">
+        <v>0</v>
+      </c>
+      <c r="B277" s="9">
+        <v>3</v>
+      </c>
+      <c r="C277" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="17">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278" s="10">
+        <v>3</v>
+      </c>
+      <c r="C278" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="17">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279" s="10">
+        <v>3</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="17">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280" s="10">
+        <v>3</v>
+      </c>
+      <c r="C280" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="17">
+      <c r="A281">
+        <v>0</v>
+      </c>
+      <c r="B281" s="10">
+        <v>3</v>
+      </c>
+      <c r="C281" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="17">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282" s="10">
+        <v>6</v>
+      </c>
+      <c r="C282" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="17">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283" s="10">
+        <v>6</v>
+      </c>
+      <c r="C283" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="17">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284" s="10">
+        <v>6</v>
+      </c>
+      <c r="C284" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="17">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285" s="10">
+        <v>6</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="17">
+      <c r="A286">
+        <v>0</v>
+      </c>
+      <c r="B286" s="10">
+        <v>6</v>
+      </c>
+      <c r="C286" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="17">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287" s="10">
+        <v>6</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="17">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288" s="10">
+        <v>6</v>
+      </c>
+      <c r="C288" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="17">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289" s="10">
+        <v>6</v>
+      </c>
+      <c r="C289" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="17">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290" s="10">
+        <v>6</v>
+      </c>
+      <c r="C290" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="17">
+      <c r="A291">
+        <v>0</v>
+      </c>
+      <c r="B291" s="10">
+        <v>6</v>
+      </c>
+      <c r="C291" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="17">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292" s="10">
+        <v>1</v>
+      </c>
+      <c r="C292" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="17">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293" s="10">
+        <v>1</v>
+      </c>
+      <c r="C293" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="17">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294" s="10">
+        <v>1</v>
+      </c>
+      <c r="C294" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="17">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295" s="10">
+        <v>1</v>
+      </c>
+      <c r="C295" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="17">
+      <c r="A296">
+        <v>0</v>
+      </c>
+      <c r="B296" s="10">
+        <v>1</v>
+      </c>
+      <c r="C296" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="17">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297" s="10">
+        <v>1</v>
+      </c>
+      <c r="C297" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="17">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298" s="10">
+        <v>1</v>
+      </c>
+      <c r="C298" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="17">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299" s="10">
+        <v>1</v>
+      </c>
+      <c r="C299" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="17">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300" s="10">
+        <v>1</v>
+      </c>
+      <c r="C300" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="17">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301" s="10">
+        <v>1</v>
+      </c>
+      <c r="C301" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="17">
+      <c r="A302" s="21">
+        <v>1</v>
+      </c>
+      <c r="B302" s="7">
+        <v>3</v>
+      </c>
+      <c r="C302" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="17">
+      <c r="A303" s="21">
+        <v>1</v>
+      </c>
+      <c r="B303" s="7">
+        <v>3</v>
+      </c>
+      <c r="C303" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="17">
+      <c r="A304" s="21">
+        <v>1</v>
+      </c>
+      <c r="B304" s="7">
+        <v>3</v>
+      </c>
+      <c r="C304" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="17">
+      <c r="A305" s="21">
+        <v>1</v>
+      </c>
+      <c r="B305" s="7">
+        <v>3</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="17">
+      <c r="A306" s="21">
+        <v>1</v>
+      </c>
+      <c r="B306" s="7">
+        <v>3</v>
+      </c>
+      <c r="C306" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="17">
+      <c r="A307" s="21">
+        <v>1</v>
+      </c>
+      <c r="B307" s="7">
+        <v>3</v>
+      </c>
+      <c r="C307" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="17">
+      <c r="A308" s="21">
+        <v>1</v>
+      </c>
+      <c r="B308" s="7">
+        <v>3</v>
+      </c>
+      <c r="C308" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="17">
+      <c r="A309" s="21">
+        <v>1</v>
+      </c>
+      <c r="B309" s="7">
+        <v>3</v>
+      </c>
+      <c r="C309" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="17">
+      <c r="A310" s="21">
+        <v>1</v>
+      </c>
+      <c r="B310" s="7">
+        <v>3</v>
+      </c>
+      <c r="C310" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="17">
+      <c r="A311" s="21">
+        <v>1</v>
+      </c>
+      <c r="B311" s="7">
+        <v>3</v>
+      </c>
+      <c r="C311" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="17">
+      <c r="A312" s="21">
+        <v>1</v>
+      </c>
+      <c r="B312" s="7">
+        <v>1</v>
+      </c>
+      <c r="C312" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="17">
+      <c r="A313" s="21">
+        <v>1</v>
+      </c>
+      <c r="B313" s="7">
+        <v>1</v>
+      </c>
+      <c r="C313" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="17">
+      <c r="A314" s="21">
+        <v>1</v>
+      </c>
+      <c r="B314" s="7">
+        <v>1</v>
+      </c>
+      <c r="C314" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="17">
+      <c r="A315" s="21">
+        <v>1</v>
+      </c>
+      <c r="B315" s="7">
+        <v>1</v>
+      </c>
+      <c r="C315" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="17">
+      <c r="A316" s="21">
+        <v>1</v>
+      </c>
+      <c r="B316" s="7">
+        <v>1</v>
+      </c>
+      <c r="C316" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="17">
+      <c r="A317" s="21">
+        <v>1</v>
+      </c>
+      <c r="B317" s="7">
+        <v>1</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="17">
+      <c r="A318" s="21">
+        <v>1</v>
+      </c>
+      <c r="B318" s="7">
+        <v>1</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="17">
+      <c r="A319" s="21">
+        <v>1</v>
+      </c>
+      <c r="B319" s="7">
+        <v>1</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="17">
+      <c r="A320" s="21">
+        <v>1</v>
+      </c>
+      <c r="B320" s="7">
+        <v>1</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="17">
+      <c r="A321" s="21">
+        <v>1</v>
+      </c>
+      <c r="B321" s="7">
+        <v>1</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="17">
+      <c r="A322" s="21">
+        <v>1</v>
+      </c>
+      <c r="B322" s="7">
+        <v>6</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="17">
+      <c r="A323" s="21">
+        <v>1</v>
+      </c>
+      <c r="B323" s="7">
+        <v>6</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="17">
+      <c r="A324" s="21">
+        <v>1</v>
+      </c>
+      <c r="B324" s="7">
+        <v>6</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="17">
+      <c r="A325" s="21">
+        <v>1</v>
+      </c>
+      <c r="B325" s="7">
+        <v>6</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="17">
+      <c r="A326" s="21">
+        <v>1</v>
+      </c>
+      <c r="B326" s="7">
+        <v>6</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="17">
+      <c r="A327" s="21">
+        <v>1</v>
+      </c>
+      <c r="B327" s="7">
+        <v>6</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="17">
+      <c r="A328" s="21">
+        <v>1</v>
+      </c>
+      <c r="B328" s="7">
+        <v>6</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="17">
+      <c r="A329" s="21">
+        <v>1</v>
+      </c>
+      <c r="B329" s="7">
+        <v>6</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="17">
+      <c r="A330" s="21">
+        <v>1</v>
+      </c>
+      <c r="B330" s="7">
+        <v>6</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="17">
+      <c r="A331" s="21">
+        <v>1</v>
+      </c>
+      <c r="B331" s="7">
+        <v>6</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="17">
+      <c r="A332" s="21">
+        <v>0</v>
+      </c>
+      <c r="B332" s="7">
+        <v>3</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="17">
+      <c r="A333" s="21">
+        <v>0</v>
+      </c>
+      <c r="B333" s="7">
+        <v>3</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="17">
+      <c r="A334" s="21">
+        <v>1</v>
+      </c>
+      <c r="B334" s="9">
+        <v>3</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="17">
+      <c r="A335" s="21">
+        <v>0</v>
+      </c>
+      <c r="B335" s="9">
+        <v>3</v>
+      </c>
+      <c r="C335" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="17">
+      <c r="A336" s="21">
+        <v>1</v>
+      </c>
+      <c r="B336" s="9">
+        <v>3</v>
+      </c>
+      <c r="C336" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="17">
+      <c r="A337" s="21">
+        <v>1</v>
+      </c>
+      <c r="B337" s="9">
+        <v>3</v>
+      </c>
+      <c r="C337" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="17">
+      <c r="A338" s="21">
+        <v>1</v>
+      </c>
+      <c r="B338" s="19">
+        <v>3</v>
+      </c>
+      <c r="C338" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="17">
+      <c r="A339" s="21">
+        <v>0</v>
+      </c>
+      <c r="B339" s="19">
+        <v>3</v>
+      </c>
+      <c r="C339" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="17">
+      <c r="A340" s="21">
+        <v>1</v>
+      </c>
+      <c r="B340" s="19">
+        <v>3</v>
+      </c>
+      <c r="C340" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="17">
+      <c r="A341" s="21">
+        <v>0</v>
+      </c>
+      <c r="B341" s="19">
+        <v>3</v>
+      </c>
+      <c r="C341" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="17">
+      <c r="A342" s="21">
+        <v>0</v>
+      </c>
+      <c r="B342" s="19">
+        <v>6</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="17">
+      <c r="A343" s="21">
+        <v>0</v>
+      </c>
+      <c r="B343" s="19">
+        <v>6</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="17">
+      <c r="A344" s="21">
+        <v>1</v>
+      </c>
+      <c r="B344" s="19">
+        <v>6</v>
+      </c>
+      <c r="C344" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="17">
+      <c r="A345" s="21">
+        <v>1</v>
+      </c>
+      <c r="B345" s="19">
+        <v>6</v>
+      </c>
+      <c r="C345" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="17">
+      <c r="A346" s="21">
+        <v>1</v>
+      </c>
+      <c r="B346" s="19">
+        <v>6</v>
+      </c>
+      <c r="C346" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="17">
+      <c r="A347" s="21">
+        <v>1</v>
+      </c>
+      <c r="B347" s="19">
+        <v>6</v>
+      </c>
+      <c r="C347" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="17">
+      <c r="A348" s="21">
+        <v>1</v>
+      </c>
+      <c r="B348" s="19">
+        <v>6</v>
+      </c>
+      <c r="C348" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="17">
+      <c r="A349" s="21">
+        <v>0</v>
+      </c>
+      <c r="B349" s="19">
+        <v>6</v>
+      </c>
+      <c r="C349" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="17">
+      <c r="A350" s="21">
+        <v>1</v>
+      </c>
+      <c r="B350" s="19">
+        <v>6</v>
+      </c>
+      <c r="C350" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="17">
+      <c r="A351" s="21">
+        <v>0</v>
+      </c>
+      <c r="B351" s="19">
+        <v>6</v>
+      </c>
+      <c r="C351" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="17">
+      <c r="A352" s="21">
+        <v>0</v>
+      </c>
+      <c r="B352" s="19">
+        <v>1</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="17">
+      <c r="A353" s="21">
+        <v>1</v>
+      </c>
+      <c r="B353" s="19">
+        <v>1</v>
+      </c>
+      <c r="C353" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="17">
+      <c r="A354" s="21">
+        <v>1</v>
+      </c>
+      <c r="B354" s="19">
+        <v>1</v>
+      </c>
+      <c r="C354" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="17">
+      <c r="A355" s="21">
+        <v>1</v>
+      </c>
+      <c r="B355" s="19">
+        <v>1</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="17">
+      <c r="A356" s="21">
+        <v>1</v>
+      </c>
+      <c r="B356" s="19">
+        <v>1</v>
+      </c>
+      <c r="C356" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="17">
+      <c r="A357" s="21">
+        <v>1</v>
+      </c>
+      <c r="B357" s="19">
+        <v>1</v>
+      </c>
+      <c r="C357" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="17">
+      <c r="A358" s="21">
+        <v>1</v>
+      </c>
+      <c r="B358" s="19">
+        <v>1</v>
+      </c>
+      <c r="C358" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="17">
+      <c r="A359" s="21">
+        <v>1</v>
+      </c>
+      <c r="B359" s="19">
+        <v>1</v>
+      </c>
+      <c r="C359" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="17">
+      <c r="A360" s="21">
+        <v>1</v>
+      </c>
+      <c r="B360" s="19">
+        <v>1</v>
+      </c>
+      <c r="C360" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="17">
+      <c r="A361" s="21">
+        <v>1</v>
+      </c>
+      <c r="B361" s="19">
+        <v>1</v>
+      </c>
+      <c r="C361" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="20">
+      <c r="A362" s="4">
+        <v>1</v>
+      </c>
+      <c r="B362" s="7">
+        <v>3</v>
+      </c>
+      <c r="C362" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="20">
+      <c r="A363" s="4">
+        <v>1</v>
+      </c>
+      <c r="B363" s="7">
+        <v>3</v>
+      </c>
+      <c r="C363" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="20">
+      <c r="A364" s="4">
+        <v>1</v>
+      </c>
+      <c r="B364" s="7">
+        <v>3</v>
+      </c>
+      <c r="C364" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="20">
+      <c r="A365" s="4">
+        <v>1</v>
+      </c>
+      <c r="B365" s="7">
+        <v>3</v>
+      </c>
+      <c r="C365" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="20">
+      <c r="A366" s="4">
+        <v>1</v>
+      </c>
+      <c r="B366" s="7">
+        <v>3</v>
+      </c>
+      <c r="C366" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="20">
+      <c r="A367" s="4">
+        <v>1</v>
+      </c>
+      <c r="B367" s="7">
+        <v>3</v>
+      </c>
+      <c r="C367" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="20">
+      <c r="A368" s="4">
+        <v>1</v>
+      </c>
+      <c r="B368" s="7">
+        <v>3</v>
+      </c>
+      <c r="C368" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="20">
+      <c r="A369" s="4">
+        <v>1</v>
+      </c>
+      <c r="B369" s="7">
+        <v>3</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="20">
+      <c r="A370" s="4">
+        <v>1</v>
+      </c>
+      <c r="B370" s="7">
+        <v>3</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="20">
+      <c r="A371" s="4">
+        <v>1</v>
+      </c>
+      <c r="B371" s="7">
+        <v>1</v>
+      </c>
+      <c r="C371" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="20">
+      <c r="A372" s="4">
+        <v>1</v>
+      </c>
+      <c r="B372" s="7">
+        <v>1</v>
+      </c>
+      <c r="C372" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="20">
+      <c r="A373" s="4">
+        <v>1</v>
+      </c>
+      <c r="B373" s="7">
+        <v>1</v>
+      </c>
+      <c r="C373" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="20">
+      <c r="A374" s="4">
+        <v>1</v>
+      </c>
+      <c r="B374" s="7">
+        <v>1</v>
+      </c>
+      <c r="C374" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="20">
+      <c r="A375" s="4">
+        <v>1</v>
+      </c>
+      <c r="B375" s="7">
+        <v>1</v>
+      </c>
+      <c r="C375" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="20">
+      <c r="A376" s="4">
+        <v>1</v>
+      </c>
+      <c r="B376" s="7">
+        <v>1</v>
+      </c>
+      <c r="C376" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="20">
+      <c r="A377" s="4">
+        <v>1</v>
+      </c>
+      <c r="B377" s="7">
+        <v>1</v>
+      </c>
+      <c r="C377" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="20">
+      <c r="A378" s="4">
+        <v>1</v>
+      </c>
+      <c r="B378" s="7">
+        <v>1</v>
+      </c>
+      <c r="C378" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="20">
+      <c r="A379" s="4">
+        <v>1</v>
+      </c>
+      <c r="B379" s="7">
+        <v>1</v>
+      </c>
+      <c r="C379" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="20">
+      <c r="A380" s="4">
+        <v>1</v>
+      </c>
+      <c r="B380" s="7">
+        <v>1</v>
+      </c>
+      <c r="C380" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="20">
+      <c r="A381" s="4">
+        <v>1</v>
+      </c>
+      <c r="B381" s="7">
+        <v>6</v>
+      </c>
+      <c r="C381" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="20">
+      <c r="A382" s="4">
+        <v>1</v>
+      </c>
+      <c r="B382" s="7">
+        <v>6</v>
+      </c>
+      <c r="C382" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="20">
+      <c r="A383" s="4">
+        <v>1</v>
+      </c>
+      <c r="B383" s="7">
+        <v>6</v>
+      </c>
+      <c r="C383" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="20">
+      <c r="A384" s="4">
+        <v>1</v>
+      </c>
+      <c r="B384" s="7">
+        <v>6</v>
+      </c>
+      <c r="C384" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="20">
+      <c r="A385" s="4">
+        <v>1</v>
+      </c>
+      <c r="B385" s="7">
+        <v>6</v>
+      </c>
+      <c r="C385" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="20">
+      <c r="A386" s="4">
+        <v>1</v>
+      </c>
+      <c r="B386" s="7">
+        <v>6</v>
+      </c>
+      <c r="C386" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="20">
+      <c r="A387" s="4">
+        <v>1</v>
+      </c>
+      <c r="B387" s="7">
+        <v>6</v>
+      </c>
+      <c r="C387" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="20">
+      <c r="A388" s="4">
+        <v>1</v>
+      </c>
+      <c r="B388" s="7">
+        <v>6</v>
+      </c>
+      <c r="C388" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="20">
+      <c r="A389" s="4">
+        <v>1</v>
+      </c>
+      <c r="B389" s="7">
+        <v>6</v>
+      </c>
+      <c r="C389" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="20">
+      <c r="A390" s="4">
+        <v>1</v>
+      </c>
+      <c r="B390" s="7">
+        <v>6</v>
+      </c>
+      <c r="C390" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="20">
+      <c r="A391" s="4">
+        <v>1</v>
+      </c>
+      <c r="B391" s="7">
+        <v>3</v>
+      </c>
+      <c r="C391" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="20">
+      <c r="A392" s="4">
+        <v>1</v>
+      </c>
+      <c r="B392" s="7">
+        <v>3</v>
+      </c>
+      <c r="C392" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="20">
+      <c r="A393" s="4">
+        <v>1</v>
+      </c>
+      <c r="B393" s="9">
+        <v>3</v>
+      </c>
+      <c r="C393" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="20">
+      <c r="A394" s="4">
+        <v>1</v>
+      </c>
+      <c r="B394" s="9">
+        <v>3</v>
+      </c>
+      <c r="C394" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="20">
+      <c r="A395" s="4">
+        <v>1</v>
+      </c>
+      <c r="B395" s="9">
+        <v>3</v>
+      </c>
+      <c r="C395" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="20">
+      <c r="A396" s="4">
+        <v>1</v>
+      </c>
+      <c r="B396" s="9">
+        <v>3</v>
+      </c>
+      <c r="C396" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="20">
+      <c r="A397" s="4">
+        <v>1</v>
+      </c>
+      <c r="B397" s="10">
+        <v>3</v>
+      </c>
+      <c r="C397" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="20">
+      <c r="A398" s="4">
+        <v>1</v>
+      </c>
+      <c r="B398" s="10">
+        <v>3</v>
+      </c>
+      <c r="C398" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="20">
+      <c r="A399" s="4">
+        <v>1</v>
+      </c>
+      <c r="B399" s="10">
+        <v>3</v>
+      </c>
+      <c r="C399" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="20">
+      <c r="A400" s="4">
+        <v>0</v>
+      </c>
+      <c r="B400" s="10">
+        <v>3</v>
+      </c>
+      <c r="C400" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="20">
+      <c r="A401" s="4">
+        <v>1</v>
+      </c>
+      <c r="B401" s="10">
+        <v>6</v>
+      </c>
+      <c r="C401" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="20">
+      <c r="A402" s="4">
+        <v>1</v>
+      </c>
+      <c r="B402" s="10">
+        <v>6</v>
+      </c>
+      <c r="C402" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="20">
+      <c r="A403" s="4">
+        <v>1</v>
+      </c>
+      <c r="B403" s="10">
+        <v>6</v>
+      </c>
+      <c r="C403" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="20">
+      <c r="A404" s="4">
+        <v>1</v>
+      </c>
+      <c r="B404" s="10">
+        <v>6</v>
+      </c>
+      <c r="C404" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="20">
+      <c r="A405" s="4">
+        <v>1</v>
+      </c>
+      <c r="B405" s="10">
+        <v>6</v>
+      </c>
+      <c r="C405" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="20">
+      <c r="A406" s="4">
+        <v>1</v>
+      </c>
+      <c r="B406" s="10">
+        <v>6</v>
+      </c>
+      <c r="C406" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="20">
+      <c r="A407" s="4">
+        <v>1</v>
+      </c>
+      <c r="B407" s="10">
+        <v>6</v>
+      </c>
+      <c r="C407" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="20">
+      <c r="A408" s="4">
+        <v>1</v>
+      </c>
+      <c r="B408" s="10">
+        <v>6</v>
+      </c>
+      <c r="C408" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="20">
+      <c r="A409" s="4">
+        <v>1</v>
+      </c>
+      <c r="B409" s="10">
+        <v>6</v>
+      </c>
+      <c r="C409" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="20">
+      <c r="A410" s="4">
+        <v>1</v>
+      </c>
+      <c r="B410" s="10">
+        <v>6</v>
+      </c>
+      <c r="C410" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="20">
+      <c r="A411" s="4">
+        <v>1</v>
+      </c>
+      <c r="B411" s="10">
+        <v>1</v>
+      </c>
+      <c r="C411" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="20">
+      <c r="A412" s="4">
+        <v>1</v>
+      </c>
+      <c r="B412" s="10">
+        <v>1</v>
+      </c>
+      <c r="C412" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="20">
+      <c r="A413" s="4">
+        <v>1</v>
+      </c>
+      <c r="B413" s="10">
+        <v>1</v>
+      </c>
+      <c r="C413" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="20">
+      <c r="A414" s="4">
+        <v>1</v>
+      </c>
+      <c r="B414" s="10">
+        <v>1</v>
+      </c>
+      <c r="C414" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="20">
+      <c r="A415" s="4">
+        <v>1</v>
+      </c>
+      <c r="B415" s="10">
+        <v>1</v>
+      </c>
+      <c r="C415" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="20">
+      <c r="A416" s="4">
+        <v>1</v>
+      </c>
+      <c r="B416" s="10">
+        <v>1</v>
+      </c>
+      <c r="C416" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="20">
+      <c r="A417" s="4">
+        <v>1</v>
+      </c>
+      <c r="B417" s="10">
+        <v>1</v>
+      </c>
+      <c r="C417" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="20">
+      <c r="A418" s="4">
+        <v>1</v>
+      </c>
+      <c r="B418" s="10">
+        <v>1</v>
+      </c>
+      <c r="C418" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="20">
+      <c r="A419" s="4">
+        <v>1</v>
+      </c>
+      <c r="B419" s="10">
+        <v>1</v>
+      </c>
+      <c r="C419" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="20">
+      <c r="A420" s="4">
+        <v>1</v>
+      </c>
+      <c r="B420" s="10">
+        <v>1</v>
+      </c>
+      <c r="C420" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="20">
+      <c r="A421" s="4">
+        <v>1</v>
+      </c>
+      <c r="B421" s="10">
+        <v>1</v>
+      </c>
+      <c r="C421" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/result-language-results.xlsx
+++ b/Results/result-language-results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D9B6F02-AD33-A34B-BFA1-0D6F67ACF3F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B804F3-0CB2-0143-A0A1-AE568769896B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="860" windowWidth="19180" windowHeight="16440" activeTab="8"/>
+    <workbookView xWindow="2060" yWindow="860" windowWidth="19180" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beecount" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="total" sheetId="10" r:id="rId8"/>
     <sheet name="data" sheetId="11" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1601,7 +1598,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="31">
     <font>
       <sz val="12"/>
@@ -2273,7 +2270,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2342,6 +2339,8 @@
     <xf numFmtId="9" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4431,137 +4430,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Total"/>
-      <sheetName val="total-failures"/>
-      <sheetName val="Beecount"/>
-      <sheetName val="Counter"/>
-      <sheetName val="Primary"/>
-      <sheetName val="Editor"/>
-      <sheetName val="ShoppingList"/>
-      <sheetName val="SimplyDo"/>
-      <sheetName val="BMICalc"/>
-      <sheetName val="Counter-French"/>
-      <sheetName val="Editor-French"/>
-      <sheetName val="Primary-French"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Test Eseguiti</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Test Falliti</v>
-          </cell>
-          <cell r="AQ1" t="str">
-            <v>Avg Succ Rate</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>C1</v>
-          </cell>
-          <cell r="B2">
-            <v>70</v>
-          </cell>
-          <cell r="C2">
-            <v>34</v>
-          </cell>
-          <cell r="AQ2">
-            <v>0.51428571428571423</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>C2</v>
-          </cell>
-          <cell r="B3">
-            <v>70</v>
-          </cell>
-          <cell r="C3">
-            <v>44</v>
-          </cell>
-          <cell r="AQ3">
-            <v>0.37142857142857139</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>C3</v>
-          </cell>
-          <cell r="B4">
-            <v>70</v>
-          </cell>
-          <cell r="C4">
-            <v>45</v>
-          </cell>
-          <cell r="AQ4">
-            <v>0.35714285714285715</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>C4</v>
-          </cell>
-          <cell r="B5">
-            <v>70</v>
-          </cell>
-          <cell r="C5">
-            <v>35</v>
-          </cell>
-          <cell r="AQ5">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>C5</v>
-          </cell>
-          <cell r="B6">
-            <v>70</v>
-          </cell>
-          <cell r="C6">
-            <v>46</v>
-          </cell>
-          <cell r="AQ6">
-            <v>0.35285714285714281</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>C6</v>
-          </cell>
-          <cell r="B7">
-            <v>70</v>
-          </cell>
-          <cell r="C7">
-            <v>49</v>
-          </cell>
-          <cell r="AQ7">
-            <v>0.3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4858,11 +4726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D61" sqref="B2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -5089,6 +4957,10 @@
       <c r="D8" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="K8" s="35">
+        <f>AVERAGE(K2:K7)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="20">
       <c r="A9" s="1" t="s">
@@ -5834,77 +5706,77 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="language-change/beecount/com.knirirr.beecount.C1.AlertMainAssertC1.html"/>
-    <hyperlink ref="A3" r:id="rId2" display="language-change/beecount/com.knirirr.beecount.C1.ChangeBackgroundC1.html"/>
-    <hyperlink ref="A4" r:id="rId3" display="language-change/beecount/com.knirirr.beecount.C1.DeleteProjectC1.html"/>
-    <hyperlink ref="A5" r:id="rId4" display="language-change/beecount/com.knirirr.beecount.C1.MultipleProjectsC1.html"/>
-    <hyperlink ref="A6" r:id="rId5" display="language-change/beecount/com.knirirr.beecount.C1.NewListCheckC1.html"/>
-    <hyperlink ref="A7" r:id="rId6" display="language-change/beecount/com.knirirr.beecount.C1.NewProjectCountC1.html"/>
-    <hyperlink ref="A8" r:id="rId7" display="language-change/beecount/com.knirirr.beecount.C1.NewProjectEmptyC1.html"/>
-    <hyperlink ref="A9" r:id="rId8" display="language-change/beecount/com.knirirr.beecount.C1.SortSettingsC1.html"/>
-    <hyperlink ref="A10" r:id="rId9" display="language-change/beecount/com.knirirr.beecount.C1.TopMenuAssertC1.html"/>
-    <hyperlink ref="A11" r:id="rId10" display="language-change/beecount/com.knirirr.beecount.C1.WelcomeAssertC1.html"/>
-    <hyperlink ref="A12" r:id="rId11" display="language-change/beecount/com.knirirr.beecount.C2.AlertMainAssertC2.html"/>
-    <hyperlink ref="A13" r:id="rId12" display="language-change/beecount/com.knirirr.beecount.C2.ChangeBackgroundC2.html"/>
-    <hyperlink ref="A14" r:id="rId13" display="language-change/beecount/com.knirirr.beecount.C2.DeleteProjectC2.html"/>
-    <hyperlink ref="A15" r:id="rId14" display="language-change/beecount/com.knirirr.beecount.C2.MultipleProjectsC2.html"/>
-    <hyperlink ref="A16" r:id="rId15" display="language-change/beecount/com.knirirr.beecount.C2.NewListCheckC2.html"/>
-    <hyperlink ref="A17" r:id="rId16" display="language-change/beecount/com.knirirr.beecount.C2.NewProjectCountC2.html"/>
-    <hyperlink ref="A18" r:id="rId17" display="language-change/beecount/com.knirirr.beecount.C2.NewProjectEmptyC2.html"/>
-    <hyperlink ref="A19" r:id="rId18" display="language-change/beecount/com.knirirr.beecount.C2.SortSettingsC2.html"/>
-    <hyperlink ref="A20" r:id="rId19" display="language-change/beecount/com.knirirr.beecount.C2.TopMenuAssertC2.html"/>
-    <hyperlink ref="A21" r:id="rId20" display="language-change/beecount/com.knirirr.beecount.C2.WelcomeAssertC2.html"/>
-    <hyperlink ref="A22" r:id="rId21" display="language-change/beecount/com.knirirr.beecount.C3.AlertMainAssertC3.html"/>
-    <hyperlink ref="A23" r:id="rId22" display="language-change/beecount/com.knirirr.beecount.C3.ChangeBackgroundC3.html"/>
-    <hyperlink ref="A24" r:id="rId23" display="language-change/beecount/com.knirirr.beecount.C3.DeleteProjectC3.html"/>
-    <hyperlink ref="A25" r:id="rId24" display="language-change/beecount/com.knirirr.beecount.C3.MultipleProjectsC3.html"/>
-    <hyperlink ref="A26" r:id="rId25" display="language-change/beecount/com.knirirr.beecount.C3.NewListCheckC3.html"/>
-    <hyperlink ref="A27" r:id="rId26" display="language-change/beecount/com.knirirr.beecount.C3.NewProjectCountC3.html"/>
-    <hyperlink ref="A28" r:id="rId27" display="language-change/beecount/com.knirirr.beecount.C3.NewProjectEmptyC3.html"/>
-    <hyperlink ref="A29" r:id="rId28" display="language-change/beecount/com.knirirr.beecount.C3.SortSettingsC3.html"/>
-    <hyperlink ref="A30" r:id="rId29" display="language-change/beecount/com.knirirr.beecount.C3.TopMenuAssertC3.html"/>
-    <hyperlink ref="A31" r:id="rId30" display="language-change/beecount/com.knirirr.beecount.C3.WelcomeAssertC3.html"/>
-    <hyperlink ref="A32" r:id="rId31" display="language-change/beecount/com.knirirr.beecount.C4.AlertMainAssertC4.html"/>
-    <hyperlink ref="A33" r:id="rId32" display="language-change/beecount/com.knirirr.beecount.C4.ChangeBackgroundC4.html"/>
-    <hyperlink ref="A34" r:id="rId33" display="language-change/beecount/com.knirirr.beecount.C4.DeleteProjectC4.html"/>
-    <hyperlink ref="A35" r:id="rId34" display="language-change/beecount/com.knirirr.beecount.C4.MultipleProjectsC4.html"/>
-    <hyperlink ref="A36" r:id="rId35" display="language-change/beecount/com.knirirr.beecount.C4.NewListCheckC4.html"/>
-    <hyperlink ref="A37" r:id="rId36" display="language-change/beecount/com.knirirr.beecount.C4.NewProjectCountC4.html"/>
-    <hyperlink ref="A38" r:id="rId37" display="language-change/beecount/com.knirirr.beecount.C4.NewProjectEmptyC4.html"/>
-    <hyperlink ref="A39" r:id="rId38" display="language-change/beecount/com.knirirr.beecount.C4.SortSettingsC4.html"/>
-    <hyperlink ref="A40" r:id="rId39" display="language-change/beecount/com.knirirr.beecount.C4.TopMenuAssertC4.html"/>
-    <hyperlink ref="A41" r:id="rId40" display="language-change/beecount/com.knirirr.beecount.C4.WelcomeAssertC4.html"/>
-    <hyperlink ref="A42" r:id="rId41" display="language-change/beecount/com.knirirr.beecount.C5.AlertMainAssertC5.html"/>
-    <hyperlink ref="A43" r:id="rId42" display="language-change/beecount/com.knirirr.beecount.C5.ChangeBackgroundC5.html"/>
-    <hyperlink ref="A44" r:id="rId43" display="language-change/beecount/com.knirirr.beecount.C5.DeleteProjectC5.html"/>
-    <hyperlink ref="A45" r:id="rId44" display="language-change/beecount/com.knirirr.beecount.C5.MultipleProjectsC5.html"/>
-    <hyperlink ref="A46" r:id="rId45" display="language-change/beecount/com.knirirr.beecount.C5.NewListCheckC5.html"/>
-    <hyperlink ref="A47" r:id="rId46" display="language-change/beecount/com.knirirr.beecount.C5.NewProjectCountC5.html"/>
-    <hyperlink ref="A48" r:id="rId47" display="language-change/beecount/com.knirirr.beecount.C5.NewProjectEmptyC5.html"/>
-    <hyperlink ref="A49" r:id="rId48" display="language-change/beecount/com.knirirr.beecount.C5.SortSettingsC5.html"/>
-    <hyperlink ref="A50" r:id="rId49" display="language-change/beecount/com.knirirr.beecount.C5.TopMenuAssertC5.html"/>
-    <hyperlink ref="A51" r:id="rId50" display="language-change/beecount/com.knirirr.beecount.C5.WelcomeAssertC5.html"/>
-    <hyperlink ref="A52" r:id="rId51" display="language-change/beecount/com.knirirr.beecount.C6.AlertMainAssertC6.html"/>
-    <hyperlink ref="A53" r:id="rId52" display="language-change/beecount/com.knirirr.beecount.C6.ChangeBackgroundC6.html"/>
-    <hyperlink ref="A54" r:id="rId53" display="language-change/beecount/com.knirirr.beecount.C6.DeleteProjectC6.html"/>
-    <hyperlink ref="A55" r:id="rId54" display="language-change/beecount/com.knirirr.beecount.C6.MultipleProjectsC6.html"/>
-    <hyperlink ref="A56" r:id="rId55" display="language-change/beecount/com.knirirr.beecount.C6.NewListCheckC6.html"/>
-    <hyperlink ref="A57" r:id="rId56" display="language-change/beecount/com.knirirr.beecount.C6.NewProjectCountC6.html"/>
-    <hyperlink ref="A58" r:id="rId57" display="language-change/beecount/com.knirirr.beecount.C6.NewProjectEmptyC6.html"/>
-    <hyperlink ref="A59" r:id="rId58" display="language-change/beecount/com.knirirr.beecount.C6.SortSettingsC6.html"/>
-    <hyperlink ref="A60" r:id="rId59" display="language-change/beecount/com.knirirr.beecount.C6.TopMenuAssertC6.html"/>
-    <hyperlink ref="A61" r:id="rId60" display="language-change/beecount/com.knirirr.beecount.C6.WelcomeAssertC6.html"/>
+    <hyperlink ref="A2" r:id="rId1" display="language-change/beecount/com.knirirr.beecount.C1.AlertMainAssertC1.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="language-change/beecount/com.knirirr.beecount.C1.ChangeBackgroundC1.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="language-change/beecount/com.knirirr.beecount.C1.DeleteProjectC1.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="language-change/beecount/com.knirirr.beecount.C1.MultipleProjectsC1.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="language-change/beecount/com.knirirr.beecount.C1.NewListCheckC1.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="language-change/beecount/com.knirirr.beecount.C1.NewProjectCountC1.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="language-change/beecount/com.knirirr.beecount.C1.NewProjectEmptyC1.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="language-change/beecount/com.knirirr.beecount.C1.SortSettingsC1.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="language-change/beecount/com.knirirr.beecount.C1.TopMenuAssertC1.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="language-change/beecount/com.knirirr.beecount.C1.WelcomeAssertC1.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="language-change/beecount/com.knirirr.beecount.C2.AlertMainAssertC2.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="language-change/beecount/com.knirirr.beecount.C2.ChangeBackgroundC2.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="language-change/beecount/com.knirirr.beecount.C2.DeleteProjectC2.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="language-change/beecount/com.knirirr.beecount.C2.MultipleProjectsC2.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="language-change/beecount/com.knirirr.beecount.C2.NewListCheckC2.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="language-change/beecount/com.knirirr.beecount.C2.NewProjectCountC2.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="language-change/beecount/com.knirirr.beecount.C2.NewProjectEmptyC2.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="language-change/beecount/com.knirirr.beecount.C2.SortSettingsC2.html" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="language-change/beecount/com.knirirr.beecount.C2.TopMenuAssertC2.html" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="language-change/beecount/com.knirirr.beecount.C2.WelcomeAssertC2.html" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="language-change/beecount/com.knirirr.beecount.C3.AlertMainAssertC3.html" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="language-change/beecount/com.knirirr.beecount.C3.ChangeBackgroundC3.html" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="language-change/beecount/com.knirirr.beecount.C3.DeleteProjectC3.html" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="language-change/beecount/com.knirirr.beecount.C3.MultipleProjectsC3.html" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="language-change/beecount/com.knirirr.beecount.C3.NewListCheckC3.html" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="language-change/beecount/com.knirirr.beecount.C3.NewProjectCountC3.html" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="language-change/beecount/com.knirirr.beecount.C3.NewProjectEmptyC3.html" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="language-change/beecount/com.knirirr.beecount.C3.SortSettingsC3.html" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="language-change/beecount/com.knirirr.beecount.C3.TopMenuAssertC3.html" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="language-change/beecount/com.knirirr.beecount.C3.WelcomeAssertC3.html" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="language-change/beecount/com.knirirr.beecount.C4.AlertMainAssertC4.html" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="language-change/beecount/com.knirirr.beecount.C4.ChangeBackgroundC4.html" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="language-change/beecount/com.knirirr.beecount.C4.DeleteProjectC4.html" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="language-change/beecount/com.knirirr.beecount.C4.MultipleProjectsC4.html" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="language-change/beecount/com.knirirr.beecount.C4.NewListCheckC4.html" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="language-change/beecount/com.knirirr.beecount.C4.NewProjectCountC4.html" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="language-change/beecount/com.knirirr.beecount.C4.NewProjectEmptyC4.html" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="language-change/beecount/com.knirirr.beecount.C4.SortSettingsC4.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="language-change/beecount/com.knirirr.beecount.C4.TopMenuAssertC4.html" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="language-change/beecount/com.knirirr.beecount.C4.WelcomeAssertC4.html" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="language-change/beecount/com.knirirr.beecount.C5.AlertMainAssertC5.html" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="language-change/beecount/com.knirirr.beecount.C5.ChangeBackgroundC5.html" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="language-change/beecount/com.knirirr.beecount.C5.DeleteProjectC5.html" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="language-change/beecount/com.knirirr.beecount.C5.MultipleProjectsC5.html" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="language-change/beecount/com.knirirr.beecount.C5.NewListCheckC5.html" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="language-change/beecount/com.knirirr.beecount.C5.NewProjectCountC5.html" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="language-change/beecount/com.knirirr.beecount.C5.NewProjectEmptyC5.html" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="language-change/beecount/com.knirirr.beecount.C5.SortSettingsC5.html" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="language-change/beecount/com.knirirr.beecount.C5.TopMenuAssertC5.html" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="language-change/beecount/com.knirirr.beecount.C5.WelcomeAssertC5.html" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="language-change/beecount/com.knirirr.beecount.C6.AlertMainAssertC6.html" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="language-change/beecount/com.knirirr.beecount.C6.ChangeBackgroundC6.html" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="language-change/beecount/com.knirirr.beecount.C6.DeleteProjectC6.html" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="language-change/beecount/com.knirirr.beecount.C6.MultipleProjectsC6.html" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="language-change/beecount/com.knirirr.beecount.C6.NewListCheckC6.html" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="language-change/beecount/com.knirirr.beecount.C6.NewProjectCountC6.html" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="language-change/beecount/com.knirirr.beecount.C6.NewProjectEmptyC6.html" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="language-change/beecount/com.knirirr.beecount.C6.SortSettingsC6.html" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="language-change/beecount/com.knirirr.beecount.C6.TopMenuAssertC6.html" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="language-change/beecount/com.knirirr.beecount.C6.WelcomeAssertC6.html" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D61" sqref="B2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6134,6 +6006,10 @@
       <c r="D8" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="K8" s="34">
+        <f>AVERAGE(K2:K7)</f>
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="17">
       <c r="A9" s="16" t="s">
@@ -6879,83 +6755,83 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.AddItemC1.html"/>
-    <hyperlink ref="A3" r:id="rId2" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.CheckItemC1.html"/>
-    <hyperlink ref="A4" r:id="rId3" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.DeleteNewListC1.html"/>
-    <hyperlink ref="A5" r:id="rId4" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.MainTopAssertC1.html"/>
-    <hyperlink ref="A6" r:id="rId5" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.MultipleListsC1.html"/>
-    <hyperlink ref="A7" r:id="rId6" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.NewListAssertC1.html"/>
-    <hyperlink ref="A8" r:id="rId7" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.NewListC1.html"/>
-    <hyperlink ref="A9" r:id="rId8" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.RemoveCheckedC1.html"/>
-    <hyperlink ref="A10" r:id="rId9" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.SettingsC1.html"/>
-    <hyperlink ref="A11" r:id="rId10" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.SortItemsC1.html"/>
-    <hyperlink ref="A12" r:id="rId11" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.AddItemC2.html"/>
-    <hyperlink ref="A13" r:id="rId12" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.CheckItemC2.html"/>
-    <hyperlink ref="A14" r:id="rId13" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.DeleteNewListC2.html"/>
-    <hyperlink ref="A15" r:id="rId14" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.MainTopAssertC2.html"/>
-    <hyperlink ref="A16" r:id="rId15" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.MultipleListsC2.html"/>
-    <hyperlink ref="A17" r:id="rId16" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.NewListAssertC2.html"/>
-    <hyperlink ref="A18" r:id="rId17" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.NewListC2.html"/>
-    <hyperlink ref="A19" r:id="rId18" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.RemoveCheckedC2.html"/>
-    <hyperlink ref="A20" r:id="rId19" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.SettingsC2.html"/>
-    <hyperlink ref="A21" r:id="rId20" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.SortItemsC2.html"/>
-    <hyperlink ref="A22" r:id="rId21" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.AddItemsC3.html"/>
-    <hyperlink ref="A23" r:id="rId22" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.CheckItemC3.html"/>
-    <hyperlink ref="A24" r:id="rId23" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.DeleteNewListC3.html"/>
-    <hyperlink ref="A25" r:id="rId24" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.MainTopAssertC3.html"/>
-    <hyperlink ref="A26" r:id="rId25" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.MultipleListsC3.html"/>
-    <hyperlink ref="A27" r:id="rId26" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.NewListAssertC3.html"/>
-    <hyperlink ref="A28" r:id="rId27" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.NewListC3.html"/>
-    <hyperlink ref="A29" r:id="rId28" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.RemoveCheckedC3.html"/>
-    <hyperlink ref="A30" r:id="rId29" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.SettingsC3.html"/>
-    <hyperlink ref="A31" r:id="rId30" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.SortItemsC3.html"/>
-    <hyperlink ref="A32" r:id="rId31" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.AddItemC4.html"/>
-    <hyperlink ref="A33" r:id="rId32" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.CheckItemC4.html"/>
-    <hyperlink ref="A34" r:id="rId33" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.DeleteNewListC4.html"/>
-    <hyperlink ref="A35" r:id="rId34" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.MainTopAssertC4.html"/>
-    <hyperlink ref="A36" r:id="rId35" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.MultipleListsC4.html"/>
-    <hyperlink ref="A37" r:id="rId36" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.NewListAssertC4.html"/>
-    <hyperlink ref="A38" r:id="rId37" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.NewListC4.html"/>
-    <hyperlink ref="A39" r:id="rId38" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.RemoveCheckedC4.html"/>
-    <hyperlink ref="A40" r:id="rId39" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.SettingsC4.html"/>
-    <hyperlink ref="A41" r:id="rId40" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.SortItemsC4.html"/>
-    <hyperlink ref="A42" r:id="rId41" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.AddItemsC5.html"/>
-    <hyperlink ref="A43" r:id="rId42" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.CheckItemC5.html"/>
-    <hyperlink ref="A44" r:id="rId43" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.DeleteNewListC5.html"/>
-    <hyperlink ref="A45" r:id="rId44" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.MainTopAssertC5.html"/>
-    <hyperlink ref="A46" r:id="rId45" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.MultipleListsC5.html"/>
-    <hyperlink ref="A47" r:id="rId46" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.NewListAssertC5.html"/>
-    <hyperlink ref="A48" r:id="rId47" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.NewListC5.html"/>
-    <hyperlink ref="A49" r:id="rId48" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.RemoveCheckedC5.html"/>
-    <hyperlink ref="A50" r:id="rId49" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.SettingsC5.html"/>
-    <hyperlink ref="A51" r:id="rId50" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.SortItemsC5.html"/>
-    <hyperlink ref="A52" r:id="rId51" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.AddItemC6.html"/>
-    <hyperlink ref="A53" r:id="rId52" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.CheckItemC6.html"/>
-    <hyperlink ref="A54" r:id="rId53" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.DeleteNewListC6.html"/>
-    <hyperlink ref="A55" r:id="rId54" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.MainTopAssertC6.html"/>
-    <hyperlink ref="A56" r:id="rId55" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.MultipleListsC6.html"/>
-    <hyperlink ref="A57" r:id="rId56" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.NewListAssertC6.html"/>
-    <hyperlink ref="A58" r:id="rId57" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.NewListC6.html"/>
-    <hyperlink ref="A59" r:id="rId58" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.RemoveCheckedC6.html"/>
-    <hyperlink ref="A60" r:id="rId59" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.SettingsC6.html"/>
-    <hyperlink ref="A61" r:id="rId60" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.SortItemsC6.html"/>
-    <hyperlink ref="G2" r:id="rId61" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.html"/>
-    <hyperlink ref="G3" r:id="rId62" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.html"/>
-    <hyperlink ref="G4" r:id="rId63" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.html"/>
-    <hyperlink ref="G5" r:id="rId64" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.html"/>
-    <hyperlink ref="G6" r:id="rId65" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.html"/>
-    <hyperlink ref="G7" r:id="rId66" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.html"/>
+    <hyperlink ref="A2" r:id="rId1" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.AddItemC1.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.CheckItemC1.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.DeleteNewListC1.html" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.MainTopAssertC1.html" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.MultipleListsC1.html" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.NewListAssertC1.html" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.NewListC1.html" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.RemoveCheckedC1.html" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.SettingsC1.html" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.SortItemsC1.html" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.AddItemC2.html" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.CheckItemC2.html" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.DeleteNewListC2.html" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.MainTopAssertC2.html" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.MultipleListsC2.html" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.NewListAssertC2.html" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.NewListC2.html" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.RemoveCheckedC2.html" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.SettingsC2.html" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.SortItemsC2.html" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.AddItemsC3.html" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.CheckItemC3.html" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.DeleteNewListC3.html" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.MainTopAssertC3.html" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.MultipleListsC3.html" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.NewListAssertC3.html" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.NewListC3.html" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.RemoveCheckedC3.html" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.SettingsC3.html" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.SortItemsC3.html" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.AddItemC4.html" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.CheckItemC4.html" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.DeleteNewListC4.html" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.MainTopAssertC4.html" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.MultipleListsC4.html" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.NewListAssertC4.html" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.NewListC4.html" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.RemoveCheckedC4.html" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.SettingsC4.html" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.SortItemsC4.html" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.AddItemsC5.html" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.CheckItemC5.html" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.DeleteNewListC5.html" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.MainTopAssertC5.html" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.MultipleListsC5.html" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.NewListAssertC5.html" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.NewListC5.html" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.RemoveCheckedC5.html" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.SettingsC5.html" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.SortItemsC5.html" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.AddItemC6.html" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.CheckItemC6.html" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.DeleteNewListC6.html" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.MainTopAssertC6.html" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.MultipleListsC6.html" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.NewListAssertC6.html" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.NewListC6.html" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.RemoveCheckedC6.html" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.SettingsC6.html" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.SortItemsC6.html" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="G2" r:id="rId61" display="language-change/shoppinglist/com.woefe.shoppinglist.C1.html" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="G3" r:id="rId62" display="language-change/shoppinglist/com.woefe.shoppinglist.C2.html" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="G4" r:id="rId63" display="language-change/shoppinglist/com.woefe.shoppinglist.C3.html" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="G5" r:id="rId64" display="language-change/shoppinglist/com.woefe.shoppinglist.C4.html" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="G6" r:id="rId65" display="language-change/shoppinglist/com.woefe.shoppinglist.C5.html" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="G7" r:id="rId66" display="language-change/shoppinglist/com.woefe.shoppinglist.C6.html" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -7205,6 +7081,10 @@
       <c r="E8" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="K8" s="35">
+        <f>AVERAGE(K2:K7)</f>
+        <v>0.6</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="17">
       <c r="A9" s="1" t="s">
@@ -8109,83 +7989,83 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="language-change/simplydo/kdk.android.simplydo.C1.AddAssertC1.html"/>
-    <hyperlink ref="A3" r:id="rId2" display="language-change/simplydo/kdk.android.simplydo.C1.AddItemC1.html"/>
-    <hyperlink ref="A4" r:id="rId3" display="language-change/simplydo/kdk.android.simplydo.C1.ChangeSettingsC1.html"/>
-    <hyperlink ref="A5" r:id="rId4" display="language-change/simplydo/kdk.android.simplydo.C1.CheckItemC1.html"/>
-    <hyperlink ref="A6" r:id="rId5" display="language-change/simplydo/kdk.android.simplydo.C1.CreateListsC1.html"/>
-    <hyperlink ref="A7" r:id="rId6" display="language-change/simplydo/kdk.android.simplydo.C1.DecoratorC1.html"/>
-    <hyperlink ref="A8" r:id="rId7" display="language-change/simplydo/kdk.android.simplydo.C1.DeleteInactiveC1.html"/>
-    <hyperlink ref="A9" r:id="rId8" display="language-change/simplydo/kdk.android.simplydo.C1.ItemAssertC1.html"/>
-    <hyperlink ref="A10" r:id="rId9" display="language-change/simplydo/kdk.android.simplydo.C1.MultipleListC1.html"/>
-    <hyperlink ref="A11" r:id="rId10" display="language-change/simplydo/kdk.android.simplydo.C1.SortItemsC1.html"/>
-    <hyperlink ref="A12" r:id="rId11" display="language-change/simplydo/kdk.android.simplydo.C2.AddAssertC2.html"/>
-    <hyperlink ref="A13" r:id="rId12" display="language-change/simplydo/kdk.android.simplydo.C2.AddItemC2.html"/>
-    <hyperlink ref="A14" r:id="rId13" display="language-change/simplydo/kdk.android.simplydo.C2.ChangeSettingsC2.html"/>
-    <hyperlink ref="A15" r:id="rId14" display="language-change/simplydo/kdk.android.simplydo.C2.CheckItemC2.html"/>
-    <hyperlink ref="A16" r:id="rId15" display="language-change/simplydo/kdk.android.simplydo.C2.CreateListsC2.html"/>
-    <hyperlink ref="A17" r:id="rId16" display="language-change/simplydo/kdk.android.simplydo.C2.DecoratorC2.html"/>
-    <hyperlink ref="A18" r:id="rId17" display="language-change/simplydo/kdk.android.simplydo.C2.DeleteInactiveC2.html"/>
-    <hyperlink ref="A19" r:id="rId18" display="language-change/simplydo/kdk.android.simplydo.C2.ItemAssertC2.html"/>
-    <hyperlink ref="A20" r:id="rId19" display="language-change/simplydo/kdk.android.simplydo.C2.MultipleListC2.html"/>
-    <hyperlink ref="A21" r:id="rId20" display="language-change/simplydo/kdk.android.simplydo.C2.SortItemsC2.html"/>
-    <hyperlink ref="A22" r:id="rId21" display="language-change/simplydo/kdk.android.simplydo.C3.AddAssertC3.html"/>
-    <hyperlink ref="A23" r:id="rId22" display="language-change/simplydo/kdk.android.simplydo.C3.AddItemC3.html"/>
-    <hyperlink ref="A24" r:id="rId23" display="language-change/simplydo/kdk.android.simplydo.C3.ChangeSettingsC3.html"/>
-    <hyperlink ref="A25" r:id="rId24" display="language-change/simplydo/kdk.android.simplydo.C3.CheckItemC3.html"/>
-    <hyperlink ref="A26" r:id="rId25" display="language-change/simplydo/kdk.android.simplydo.C3.CreateListC3.html"/>
-    <hyperlink ref="A27" r:id="rId26" display="language-change/simplydo/kdk.android.simplydo.C3.DecoratorC3.html"/>
-    <hyperlink ref="A28" r:id="rId27" display="language-change/simplydo/kdk.android.simplydo.C3.DeleteInactiveC3.html"/>
-    <hyperlink ref="A29" r:id="rId28" display="language-change/simplydo/kdk.android.simplydo.C3.ItemAssertC3.html"/>
-    <hyperlink ref="A30" r:id="rId29" display="language-change/simplydo/kdk.android.simplydo.C3.MultipleListC3.html"/>
-    <hyperlink ref="A31" r:id="rId30" display="language-change/simplydo/kdk.android.simplydo.C3.SortItemsC3.html"/>
-    <hyperlink ref="A32" r:id="rId31" display="language-change/simplydo/kdk.android.simplydo.C4.AddAssertC4.html"/>
-    <hyperlink ref="A33" r:id="rId32" display="language-change/simplydo/kdk.android.simplydo.C4.AddItemC4.html"/>
-    <hyperlink ref="A34" r:id="rId33" display="language-change/simplydo/kdk.android.simplydo.C4.ChangeSettingsC4.html"/>
-    <hyperlink ref="A35" r:id="rId34" display="language-change/simplydo/kdk.android.simplydo.C4.CheckItemC4.html"/>
-    <hyperlink ref="A36" r:id="rId35" display="language-change/simplydo/kdk.android.simplydo.C4.CreateListsC4.html"/>
-    <hyperlink ref="A37" r:id="rId36" display="language-change/simplydo/kdk.android.simplydo.C4.DecoratorC4.html"/>
-    <hyperlink ref="A38" r:id="rId37" display="language-change/simplydo/kdk.android.simplydo.C4.DeleteInactiveC4.html"/>
-    <hyperlink ref="A39" r:id="rId38" display="language-change/simplydo/kdk.android.simplydo.C4.ItemAssertC4.html"/>
-    <hyperlink ref="A40" r:id="rId39" display="language-change/simplydo/kdk.android.simplydo.C4.MultipleListC4.html"/>
-    <hyperlink ref="A41" r:id="rId40" display="language-change/simplydo/kdk.android.simplydo.C4.SortItemsC4.html"/>
-    <hyperlink ref="A42" r:id="rId41" display="language-change/simplydo/kdk.android.simplydo.C5.AddAssertC5.html"/>
-    <hyperlink ref="A43" r:id="rId42" display="language-change/simplydo/kdk.android.simplydo.C5.AddItemC5.html"/>
-    <hyperlink ref="A44" r:id="rId43" display="language-change/simplydo/kdk.android.simplydo.C5.ChangeSettingsC5.html"/>
-    <hyperlink ref="A45" r:id="rId44" display="language-change/simplydo/kdk.android.simplydo.C5.CheckItemC5.html"/>
-    <hyperlink ref="A46" r:id="rId45" display="language-change/simplydo/kdk.android.simplydo.C5.CreateListC5.html"/>
-    <hyperlink ref="A47" r:id="rId46" display="language-change/simplydo/kdk.android.simplydo.C5.DecoratorC5.html"/>
-    <hyperlink ref="A48" r:id="rId47" display="language-change/simplydo/kdk.android.simplydo.C5.DeleteInactiveC5.html"/>
-    <hyperlink ref="A49" r:id="rId48" display="language-change/simplydo/kdk.android.simplydo.C5.ItemAssertC5.html"/>
-    <hyperlink ref="A50" r:id="rId49" display="language-change/simplydo/kdk.android.simplydo.C5.MultipleListC5.html"/>
-    <hyperlink ref="A51" r:id="rId50" display="language-change/simplydo/kdk.android.simplydo.C5.SortItemsC5.html"/>
-    <hyperlink ref="A52" r:id="rId51" display="language-change/simplydo/kdk.android.simplydo.C6.AddAssertC6.html"/>
-    <hyperlink ref="A53" r:id="rId52" display="language-change/simplydo/kdk.android.simplydo.C6.AddItemC6.html"/>
-    <hyperlink ref="A54" r:id="rId53" display="language-change/simplydo/kdk.android.simplydo.C6.ChangeSettingsC6.html"/>
-    <hyperlink ref="A55" r:id="rId54" display="language-change/simplydo/kdk.android.simplydo.C6.CheckItemC6.html"/>
-    <hyperlink ref="A56" r:id="rId55" display="language-change/simplydo/kdk.android.simplydo.C6.CreateListsC6.html"/>
-    <hyperlink ref="A57" r:id="rId56" display="language-change/simplydo/kdk.android.simplydo.C6.DecoratorC6.html"/>
-    <hyperlink ref="A58" r:id="rId57" display="language-change/simplydo/kdk.android.simplydo.C6.DeleteInactiveC6.html"/>
-    <hyperlink ref="A59" r:id="rId58" display="language-change/simplydo/kdk.android.simplydo.C6.ItemAssertC6.html"/>
-    <hyperlink ref="A60" r:id="rId59" display="language-change/simplydo/kdk.android.simplydo.C6.MultipleListC6.html"/>
-    <hyperlink ref="A61" r:id="rId60" display="language-change/simplydo/kdk.android.simplydo.C6.SortItemsC6.html"/>
-    <hyperlink ref="G2" r:id="rId61" display="language-change/simplydo/kdk.android.simplydo.C1.html"/>
-    <hyperlink ref="G3" r:id="rId62" display="language-change/simplydo/kdk.android.simplydo.C2.html"/>
-    <hyperlink ref="G4" r:id="rId63" display="language-change/simplydo/kdk.android.simplydo.C3.html"/>
-    <hyperlink ref="G5" r:id="rId64" display="language-change/simplydo/kdk.android.simplydo.C4.html"/>
-    <hyperlink ref="G6" r:id="rId65" display="language-change/simplydo/kdk.android.simplydo.C5.html"/>
-    <hyperlink ref="G7" r:id="rId66" display="language-change/simplydo/kdk.android.simplydo.C6.html"/>
+    <hyperlink ref="A2" r:id="rId1" display="language-change/simplydo/kdk.android.simplydo.C1.AddAssertC1.html" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="language-change/simplydo/kdk.android.simplydo.C1.AddItemC1.html" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="language-change/simplydo/kdk.android.simplydo.C1.ChangeSettingsC1.html" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="language-change/simplydo/kdk.android.simplydo.C1.CheckItemC1.html" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="language-change/simplydo/kdk.android.simplydo.C1.CreateListsC1.html" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="language-change/simplydo/kdk.android.simplydo.C1.DecoratorC1.html" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="language-change/simplydo/kdk.android.simplydo.C1.DeleteInactiveC1.html" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="language-change/simplydo/kdk.android.simplydo.C1.ItemAssertC1.html" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="language-change/simplydo/kdk.android.simplydo.C1.MultipleListC1.html" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="language-change/simplydo/kdk.android.simplydo.C1.SortItemsC1.html" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="language-change/simplydo/kdk.android.simplydo.C2.AddAssertC2.html" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="language-change/simplydo/kdk.android.simplydo.C2.AddItemC2.html" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="language-change/simplydo/kdk.android.simplydo.C2.ChangeSettingsC2.html" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="language-change/simplydo/kdk.android.simplydo.C2.CheckItemC2.html" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="language-change/simplydo/kdk.android.simplydo.C2.CreateListsC2.html" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="language-change/simplydo/kdk.android.simplydo.C2.DecoratorC2.html" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="language-change/simplydo/kdk.android.simplydo.C2.DeleteInactiveC2.html" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="language-change/simplydo/kdk.android.simplydo.C2.ItemAssertC2.html" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="language-change/simplydo/kdk.android.simplydo.C2.MultipleListC2.html" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="language-change/simplydo/kdk.android.simplydo.C2.SortItemsC2.html" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="language-change/simplydo/kdk.android.simplydo.C3.AddAssertC3.html" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="language-change/simplydo/kdk.android.simplydo.C3.AddItemC3.html" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="language-change/simplydo/kdk.android.simplydo.C3.ChangeSettingsC3.html" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="language-change/simplydo/kdk.android.simplydo.C3.CheckItemC3.html" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="language-change/simplydo/kdk.android.simplydo.C3.CreateListC3.html" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="language-change/simplydo/kdk.android.simplydo.C3.DecoratorC3.html" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="language-change/simplydo/kdk.android.simplydo.C3.DeleteInactiveC3.html" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="language-change/simplydo/kdk.android.simplydo.C3.ItemAssertC3.html" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="language-change/simplydo/kdk.android.simplydo.C3.MultipleListC3.html" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="language-change/simplydo/kdk.android.simplydo.C3.SortItemsC3.html" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="language-change/simplydo/kdk.android.simplydo.C4.AddAssertC4.html" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="language-change/simplydo/kdk.android.simplydo.C4.AddItemC4.html" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="language-change/simplydo/kdk.android.simplydo.C4.ChangeSettingsC4.html" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="language-change/simplydo/kdk.android.simplydo.C4.CheckItemC4.html" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="language-change/simplydo/kdk.android.simplydo.C4.CreateListsC4.html" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="language-change/simplydo/kdk.android.simplydo.C4.DecoratorC4.html" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="language-change/simplydo/kdk.android.simplydo.C4.DeleteInactiveC4.html" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="language-change/simplydo/kdk.android.simplydo.C4.ItemAssertC4.html" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="language-change/simplydo/kdk.android.simplydo.C4.MultipleListC4.html" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="language-change/simplydo/kdk.android.simplydo.C4.SortItemsC4.html" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="language-change/simplydo/kdk.android.simplydo.C5.AddAssertC5.html" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="language-change/simplydo/kdk.android.simplydo.C5.AddItemC5.html" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="language-change/simplydo/kdk.android.simplydo.C5.ChangeSettingsC5.html" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="language-change/simplydo/kdk.android.simplydo.C5.CheckItemC5.html" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="language-change/simplydo/kdk.android.simplydo.C5.CreateListC5.html" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="language-change/simplydo/kdk.android.simplydo.C5.DecoratorC5.html" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="language-change/simplydo/kdk.android.simplydo.C5.DeleteInactiveC5.html" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="language-change/simplydo/kdk.android.simplydo.C5.ItemAssertC5.html" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="language-change/simplydo/kdk.android.simplydo.C5.MultipleListC5.html" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="language-change/simplydo/kdk.android.simplydo.C5.SortItemsC5.html" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="language-change/simplydo/kdk.android.simplydo.C6.AddAssertC6.html" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="language-change/simplydo/kdk.android.simplydo.C6.AddItemC6.html" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="language-change/simplydo/kdk.android.simplydo.C6.ChangeSettingsC6.html" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="language-change/simplydo/kdk.android.simplydo.C6.CheckItemC6.html" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="language-change/simplydo/kdk.android.simplydo.C6.CreateListsC6.html" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="language-change/simplydo/kdk.android.simplydo.C6.DecoratorC6.html" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="language-change/simplydo/kdk.android.simplydo.C6.DeleteInactiveC6.html" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="language-change/simplydo/kdk.android.simplydo.C6.ItemAssertC6.html" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="language-change/simplydo/kdk.android.simplydo.C6.MultipleListC6.html" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="language-change/simplydo/kdk.android.simplydo.C6.SortItemsC6.html" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="G2" r:id="rId61" display="language-change/simplydo/kdk.android.simplydo.C1.html" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="G3" r:id="rId62" display="language-change/simplydo/kdk.android.simplydo.C2.html" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="G4" r:id="rId63" display="language-change/simplydo/kdk.android.simplydo.C3.html" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="G5" r:id="rId64" display="language-change/simplydo/kdk.android.simplydo.C4.html" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="G6" r:id="rId65" display="language-change/simplydo/kdk.android.simplydo.C5.html" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="G7" r:id="rId66" display="language-change/simplydo/kdk.android.simplydo.C6.html" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D61" sqref="B2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8415,6 +8295,10 @@
       <c r="D8" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="K8" s="34">
+        <f>AVERAGE(K2:K7)</f>
+        <v>0.25000000000000006</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="17">
       <c r="A9" s="16" t="s">
@@ -9160,83 +9044,83 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="language-change/counter/me.tsukanov.counter.ui.C1.AddRemoveCntC1.html"/>
-    <hyperlink ref="A3" r:id="rId2" display="language-change/counter/me.tsukanov.counter.ui.C1.AssertCountC1.html"/>
-    <hyperlink ref="A4" r:id="rId3" display="language-change/counter/me.tsukanov.counter.ui.C1.BasicCountC1.html"/>
-    <hyperlink ref="A5" r:id="rId4" display="language-change/counter/me.tsukanov.counter.ui.C1.ChangeThemeC1.html"/>
-    <hyperlink ref="A6" r:id="rId5" display="language-change/counter/me.tsukanov.counter.ui.C1.CreateCounterC1.html"/>
-    <hyperlink ref="A7" r:id="rId6" display="language-change/counter/me.tsukanov.counter.ui.C1.DeleteCounterC1.html"/>
-    <hyperlink ref="A8" r:id="rId7" display="language-change/counter/me.tsukanov.counter.ui.C1.EditAssertC1.html"/>
-    <hyperlink ref="A9" r:id="rId8" display="language-change/counter/me.tsukanov.counter.ui.C1.EditCounterC1.html"/>
-    <hyperlink ref="A10" r:id="rId9" display="language-change/counter/me.tsukanov.counter.ui.C1.MainUIAssertC1.html"/>
-    <hyperlink ref="A11" r:id="rId10" display="language-change/counter/me.tsukanov.counter.ui.C1.NewCounterAssertC1.html"/>
-    <hyperlink ref="A12" r:id="rId11" display="language-change/counter/me.tsukanov.counter.ui.C2.AddRemoveCntC2.html"/>
-    <hyperlink ref="A13" r:id="rId12" display="language-change/counter/me.tsukanov.counter.ui.C2.AssertCountC2.html"/>
-    <hyperlink ref="A14" r:id="rId13" display="language-change/counter/me.tsukanov.counter.ui.C2.BasicCountC2.html"/>
-    <hyperlink ref="A15" r:id="rId14" display="language-change/counter/me.tsukanov.counter.ui.C2.ChangeThemeC2.html"/>
-    <hyperlink ref="A16" r:id="rId15" display="language-change/counter/me.tsukanov.counter.ui.C2.CreateCounterC2.html"/>
-    <hyperlink ref="A17" r:id="rId16" display="language-change/counter/me.tsukanov.counter.ui.C2.DeleteCounterC2.html"/>
-    <hyperlink ref="A18" r:id="rId17" display="language-change/counter/me.tsukanov.counter.ui.C2.EditAssertC2.html"/>
-    <hyperlink ref="A19" r:id="rId18" display="language-change/counter/me.tsukanov.counter.ui.C2.EditCounterC2.html"/>
-    <hyperlink ref="A20" r:id="rId19" display="language-change/counter/me.tsukanov.counter.ui.C2.MainUIAssertC2.html"/>
-    <hyperlink ref="A21" r:id="rId20" display="language-change/counter/me.tsukanov.counter.ui.C2.NewCounterAssertC2.html"/>
-    <hyperlink ref="A22" r:id="rId21" display="language-change/counter/me.tsukanov.counter.ui.C3.AddRemoveCntC3.html"/>
-    <hyperlink ref="A23" r:id="rId22" display="language-change/counter/me.tsukanov.counter.ui.C3.AssertCountC3.html"/>
-    <hyperlink ref="A24" r:id="rId23" display="language-change/counter/me.tsukanov.counter.ui.C3.ChangeThemeC3.html"/>
-    <hyperlink ref="A25" r:id="rId24" display="language-change/counter/me.tsukanov.counter.ui.C3.CountResetC3.html"/>
-    <hyperlink ref="A26" r:id="rId25" display="language-change/counter/me.tsukanov.counter.ui.C3.CounterBasicC3.html"/>
-    <hyperlink ref="A27" r:id="rId26" display="language-change/counter/me.tsukanov.counter.ui.C3.DeleteCounterC3.html"/>
-    <hyperlink ref="A28" r:id="rId27" display="language-change/counter/me.tsukanov.counter.ui.C3.EditAssertC3.html"/>
-    <hyperlink ref="A29" r:id="rId28" display="language-change/counter/me.tsukanov.counter.ui.C3.MainUIAssertC3.html"/>
-    <hyperlink ref="A30" r:id="rId29" display="language-change/counter/me.tsukanov.counter.ui.C3.NewCounterAssertC3.html"/>
-    <hyperlink ref="A31" r:id="rId30" display="language-change/counter/me.tsukanov.counter.ui.C3.NewCounterC3.html"/>
-    <hyperlink ref="A32" r:id="rId31" display="language-change/counter/me.tsukanov.counter.ui.C4.AddRemoveCntC4.html"/>
-    <hyperlink ref="A33" r:id="rId32" display="language-change/counter/me.tsukanov.counter.ui.C4.AssertCountC4.html"/>
-    <hyperlink ref="A34" r:id="rId33" display="language-change/counter/me.tsukanov.counter.ui.C4.BasicCountC4.html"/>
-    <hyperlink ref="A35" r:id="rId34" display="language-change/counter/me.tsukanov.counter.ui.C4.ChangeThemeC4.html"/>
-    <hyperlink ref="A36" r:id="rId35" display="language-change/counter/me.tsukanov.counter.ui.C4.CreateCounterC4.html"/>
-    <hyperlink ref="A37" r:id="rId36" display="language-change/counter/me.tsukanov.counter.ui.C4.DeleteCounterC4.html"/>
-    <hyperlink ref="A38" r:id="rId37" display="language-change/counter/me.tsukanov.counter.ui.C4.EditAssertC4.html"/>
-    <hyperlink ref="A39" r:id="rId38" display="language-change/counter/me.tsukanov.counter.ui.C4.EditCounterC4.html"/>
-    <hyperlink ref="A40" r:id="rId39" display="language-change/counter/me.tsukanov.counter.ui.C4.MainUIAssertC4.html"/>
-    <hyperlink ref="A41" r:id="rId40" display="language-change/counter/me.tsukanov.counter.ui.C4.NewCounterAssertC4.html"/>
-    <hyperlink ref="A42" r:id="rId41" display="language-change/counter/me.tsukanov.counter.ui.C5.AddRemoveCntC5.html"/>
-    <hyperlink ref="A43" r:id="rId42" display="language-change/counter/me.tsukanov.counter.ui.C5.AssertCountC5.html"/>
-    <hyperlink ref="A44" r:id="rId43" display="language-change/counter/me.tsukanov.counter.ui.C5.ChangeThemeC5.html"/>
-    <hyperlink ref="A45" r:id="rId44" display="language-change/counter/me.tsukanov.counter.ui.C5.CountResetC5.html"/>
-    <hyperlink ref="A46" r:id="rId45" display="language-change/counter/me.tsukanov.counter.ui.C5.CounterBasicC5.html"/>
-    <hyperlink ref="A47" r:id="rId46" display="language-change/counter/me.tsukanov.counter.ui.C5.DeleteCounterC5.html"/>
-    <hyperlink ref="A48" r:id="rId47" display="language-change/counter/me.tsukanov.counter.ui.C5.EditAssertC5.html"/>
-    <hyperlink ref="A49" r:id="rId48" display="language-change/counter/me.tsukanov.counter.ui.C5.MainUIAssertC5.html"/>
-    <hyperlink ref="A50" r:id="rId49" display="language-change/counter/me.tsukanov.counter.ui.C5.NewCounterAssertC5.html"/>
-    <hyperlink ref="A51" r:id="rId50" display="language-change/counter/me.tsukanov.counter.ui.C5.NewCounterC5.html"/>
-    <hyperlink ref="A52" r:id="rId51" display="language-change/counter/me.tsukanov.counter.ui.C6.AddRemoveCntC6.html"/>
-    <hyperlink ref="A53" r:id="rId52" display="language-change/counter/me.tsukanov.counter.ui.C6.AssertCountC6.html"/>
-    <hyperlink ref="A54" r:id="rId53" display="language-change/counter/me.tsukanov.counter.ui.C6.BasicCountC6.html"/>
-    <hyperlink ref="A55" r:id="rId54" display="language-change/counter/me.tsukanov.counter.ui.C6.ChangeThemeC6.html"/>
-    <hyperlink ref="A56" r:id="rId55" display="language-change/counter/me.tsukanov.counter.ui.C6.CreateCounterC6.html"/>
-    <hyperlink ref="A57" r:id="rId56" display="language-change/counter/me.tsukanov.counter.ui.C6.DeleteCounterC6.html"/>
-    <hyperlink ref="A58" r:id="rId57" display="language-change/counter/me.tsukanov.counter.ui.C6.EditAssertC6.html"/>
-    <hyperlink ref="A59" r:id="rId58" display="language-change/counter/me.tsukanov.counter.ui.C6.EditCounterC6.html"/>
-    <hyperlink ref="A60" r:id="rId59" display="language-change/counter/me.tsukanov.counter.ui.C6.MainUIAssertC6.html"/>
-    <hyperlink ref="A61" r:id="rId60" display="language-change/counter/me.tsukanov.counter.ui.C6.NewCounterAssertC6.html"/>
-    <hyperlink ref="G2" r:id="rId61" display="language-change/counter/me.tsukanov.counter.ui.C1.html"/>
-    <hyperlink ref="G3" r:id="rId62" display="language-change/counter/me.tsukanov.counter.ui.C2.html"/>
-    <hyperlink ref="G4" r:id="rId63" display="language-change/counter/me.tsukanov.counter.ui.C3.html"/>
-    <hyperlink ref="G5" r:id="rId64" display="language-change/counter/me.tsukanov.counter.ui.C4.html"/>
-    <hyperlink ref="G6" r:id="rId65" display="language-change/counter/me.tsukanov.counter.ui.C5.html"/>
-    <hyperlink ref="G7" r:id="rId66" display="language-change/counter/me.tsukanov.counter.ui.C6.html"/>
+    <hyperlink ref="A2" r:id="rId1" display="language-change/counter/me.tsukanov.counter.ui.C1.AddRemoveCntC1.html" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="language-change/counter/me.tsukanov.counter.ui.C1.AssertCountC1.html" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="language-change/counter/me.tsukanov.counter.ui.C1.BasicCountC1.html" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="language-change/counter/me.tsukanov.counter.ui.C1.ChangeThemeC1.html" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="language-change/counter/me.tsukanov.counter.ui.C1.CreateCounterC1.html" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="language-change/counter/me.tsukanov.counter.ui.C1.DeleteCounterC1.html" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="language-change/counter/me.tsukanov.counter.ui.C1.EditAssertC1.html" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="language-change/counter/me.tsukanov.counter.ui.C1.EditCounterC1.html" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="language-change/counter/me.tsukanov.counter.ui.C1.MainUIAssertC1.html" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="language-change/counter/me.tsukanov.counter.ui.C1.NewCounterAssertC1.html" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="language-change/counter/me.tsukanov.counter.ui.C2.AddRemoveCntC2.html" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="language-change/counter/me.tsukanov.counter.ui.C2.AssertCountC2.html" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="language-change/counter/me.tsukanov.counter.ui.C2.BasicCountC2.html" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="language-change/counter/me.tsukanov.counter.ui.C2.ChangeThemeC2.html" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="language-change/counter/me.tsukanov.counter.ui.C2.CreateCounterC2.html" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="language-change/counter/me.tsukanov.counter.ui.C2.DeleteCounterC2.html" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="language-change/counter/me.tsukanov.counter.ui.C2.EditAssertC2.html" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="language-change/counter/me.tsukanov.counter.ui.C2.EditCounterC2.html" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="language-change/counter/me.tsukanov.counter.ui.C2.MainUIAssertC2.html" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="language-change/counter/me.tsukanov.counter.ui.C2.NewCounterAssertC2.html" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="language-change/counter/me.tsukanov.counter.ui.C3.AddRemoveCntC3.html" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="language-change/counter/me.tsukanov.counter.ui.C3.AssertCountC3.html" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="language-change/counter/me.tsukanov.counter.ui.C3.ChangeThemeC3.html" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="language-change/counter/me.tsukanov.counter.ui.C3.CountResetC3.html" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="language-change/counter/me.tsukanov.counter.ui.C3.CounterBasicC3.html" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="language-change/counter/me.tsukanov.counter.ui.C3.DeleteCounterC3.html" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="language-change/counter/me.tsukanov.counter.ui.C3.EditAssertC3.html" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="language-change/counter/me.tsukanov.counter.ui.C3.MainUIAssertC3.html" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="language-change/counter/me.tsukanov.counter.ui.C3.NewCounterAssertC3.html" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="language-change/counter/me.tsukanov.counter.ui.C3.NewCounterC3.html" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="language-change/counter/me.tsukanov.counter.ui.C4.AddRemoveCntC4.html" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="language-change/counter/me.tsukanov.counter.ui.C4.AssertCountC4.html" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="language-change/counter/me.tsukanov.counter.ui.C4.BasicCountC4.html" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="language-change/counter/me.tsukanov.counter.ui.C4.ChangeThemeC4.html" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="language-change/counter/me.tsukanov.counter.ui.C4.CreateCounterC4.html" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="language-change/counter/me.tsukanov.counter.ui.C4.DeleteCounterC4.html" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="language-change/counter/me.tsukanov.counter.ui.C4.EditAssertC4.html" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="language-change/counter/me.tsukanov.counter.ui.C4.EditCounterC4.html" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="language-change/counter/me.tsukanov.counter.ui.C4.MainUIAssertC4.html" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="language-change/counter/me.tsukanov.counter.ui.C4.NewCounterAssertC4.html" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="language-change/counter/me.tsukanov.counter.ui.C5.AddRemoveCntC5.html" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="language-change/counter/me.tsukanov.counter.ui.C5.AssertCountC5.html" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="language-change/counter/me.tsukanov.counter.ui.C5.ChangeThemeC5.html" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="language-change/counter/me.tsukanov.counter.ui.C5.CountResetC5.html" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="language-change/counter/me.tsukanov.counter.ui.C5.CounterBasicC5.html" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="language-change/counter/me.tsukanov.counter.ui.C5.DeleteCounterC5.html" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="language-change/counter/me.tsukanov.counter.ui.C5.EditAssertC5.html" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="language-change/counter/me.tsukanov.counter.ui.C5.MainUIAssertC5.html" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="language-change/counter/me.tsukanov.counter.ui.C5.NewCounterAssertC5.html" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="language-change/counter/me.tsukanov.counter.ui.C5.NewCounterC5.html" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="language-change/counter/me.tsukanov.counter.ui.C6.AddRemoveCntC6.html" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="language-change/counter/me.tsukanov.counter.ui.C6.AssertCountC6.html" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="language-change/counter/me.tsukanov.counter.ui.C6.BasicCountC6.html" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="language-change/counter/me.tsukanov.counter.ui.C6.ChangeThemeC6.html" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="language-change/counter/me.tsukanov.counter.ui.C6.CreateCounterC6.html" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="language-change/counter/me.tsukanov.counter.ui.C6.DeleteCounterC6.html" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="language-change/counter/me.tsukanov.counter.ui.C6.EditAssertC6.html" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="language-change/counter/me.tsukanov.counter.ui.C6.EditCounterC6.html" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="language-change/counter/me.tsukanov.counter.ui.C6.MainUIAssertC6.html" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="language-change/counter/me.tsukanov.counter.ui.C6.NewCounterAssertC6.html" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="G2" r:id="rId61" display="language-change/counter/me.tsukanov.counter.ui.C1.html" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="G3" r:id="rId62" display="language-change/counter/me.tsukanov.counter.ui.C2.html" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="G4" r:id="rId63" display="language-change/counter/me.tsukanov.counter.ui.C3.html" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="G5" r:id="rId64" display="language-change/counter/me.tsukanov.counter.ui.C4.html" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="G6" r:id="rId65" display="language-change/counter/me.tsukanov.counter.ui.C5.html" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="G7" r:id="rId66" display="language-change/counter/me.tsukanov.counter.ui.C6.html" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D61" sqref="B2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9463,6 +9347,10 @@
       <c r="D8" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="K8" s="35">
+        <f>AVERAGE(K2:K7)</f>
+        <v>0.43333333333333335</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="20">
       <c r="A9" s="1" t="s">
@@ -10208,83 +10096,83 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="language-change/bmi/com.zola.bmi.C1.ChangeMetricInputC1.html"/>
-    <hyperlink ref="A3" r:id="rId2" display="language-change/bmi/com.zola.bmi.C1.ChangeScoreC1.html"/>
-    <hyperlink ref="A4" r:id="rId3" display="language-change/bmi/com.zola.bmi.C1.InputDataTestC1.html"/>
-    <hyperlink ref="A5" r:id="rId4" display="language-change/bmi/com.zola.bmi.C1.MixedMetricsC1.html"/>
-    <hyperlink ref="A6" r:id="rId5" display="language-change/bmi/com.zola.bmi.C1.MixedScoreC1.html"/>
-    <hyperlink ref="A7" r:id="rId6" display="language-change/bmi/com.zola.bmi.C1.ScoreAssertionC1.html"/>
-    <hyperlink ref="A8" r:id="rId7" display="language-change/bmi/com.zola.bmi.C1.ScoreAssertionTextC1.html"/>
-    <hyperlink ref="A9" r:id="rId8" display="language-change/bmi/com.zola.bmi.C1.ScoreCalcC1.html"/>
-    <hyperlink ref="A10" r:id="rId9" display="language-change/bmi/com.zola.bmi.C1.UIExistsTestC1.html"/>
-    <hyperlink ref="A11" r:id="rId10" display="language-change/bmi/com.zola.bmi.C1.UITextAssertC1.html"/>
-    <hyperlink ref="A12" r:id="rId11" display="language-change/bmi/com.zola.bmi.C2.ChangeMetricsInputC2.html"/>
-    <hyperlink ref="A13" r:id="rId12" display="language-change/bmi/com.zola.bmi.C2.ChangeScoreC2.html"/>
-    <hyperlink ref="A14" r:id="rId13" display="language-change/bmi/com.zola.bmi.C2.InputDataC2.html"/>
-    <hyperlink ref="A15" r:id="rId14" display="language-change/bmi/com.zola.bmi.C2.MixedMetricsC2.html"/>
-    <hyperlink ref="A16" r:id="rId15" display="language-change/bmi/com.zola.bmi.C2.MixedScoreC2.html"/>
-    <hyperlink ref="A17" r:id="rId16" display="language-change/bmi/com.zola.bmi.C2.ScoreAssertTextC2.html"/>
-    <hyperlink ref="A18" r:id="rId17" display="language-change/bmi/com.zola.bmi.C2.ScoreCalcC2.html"/>
-    <hyperlink ref="A19" r:id="rId18" display="language-change/bmi/com.zola.bmi.C2.UIAssertC2.html"/>
-    <hyperlink ref="A20" r:id="rId19" display="language-change/bmi/com.zola.bmi.C2.UIExistsC2.html"/>
-    <hyperlink ref="A21" r:id="rId20" display="language-change/bmi/com.zola.bmi.C2.UITextAssertC2.html"/>
-    <hyperlink ref="A22" r:id="rId21" display="language-change/bmi/com.zola.bmi.C3.ChangeMetricsInputC3.html"/>
-    <hyperlink ref="A23" r:id="rId22" display="language-change/bmi/com.zola.bmi.C3.ChangeScoreC3.html"/>
-    <hyperlink ref="A24" r:id="rId23" display="language-change/bmi/com.zola.bmi.C3.InputDataC3.html"/>
-    <hyperlink ref="A25" r:id="rId24" display="language-change/bmi/com.zola.bmi.C3.MixedMetricsC3.html"/>
-    <hyperlink ref="A26" r:id="rId25" display="language-change/bmi/com.zola.bmi.C3.MixedScoreC3.html"/>
-    <hyperlink ref="A27" r:id="rId26" display="language-change/bmi/com.zola.bmi.C3.ScoreAssertC3.html"/>
-    <hyperlink ref="A28" r:id="rId27" display="language-change/bmi/com.zola.bmi.C3.ScoreCalcC3.html"/>
-    <hyperlink ref="A29" r:id="rId28" display="language-change/bmi/com.zola.bmi.C3.UIAssertC3.html"/>
-    <hyperlink ref="A30" r:id="rId29" display="language-change/bmi/com.zola.bmi.C3.UIExistsC3.html"/>
-    <hyperlink ref="A31" r:id="rId30" display="language-change/bmi/com.zola.bmi.C3.UITextAssertC3.html"/>
-    <hyperlink ref="A32" r:id="rId31" display="language-change/bmi/com.zola.bmi.C4.ChangeMetricInputC4.html"/>
-    <hyperlink ref="A33" r:id="rId32" display="language-change/bmi/com.zola.bmi.C4.ChangeScoreC4.html"/>
-    <hyperlink ref="A34" r:id="rId33" display="language-change/bmi/com.zola.bmi.C4.InputDataTestC4.html"/>
-    <hyperlink ref="A35" r:id="rId34" display="language-change/bmi/com.zola.bmi.C4.MixedMetricsC4.html"/>
-    <hyperlink ref="A36" r:id="rId35" display="language-change/bmi/com.zola.bmi.C4.MixedScoreC4.html"/>
-    <hyperlink ref="A37" r:id="rId36" display="language-change/bmi/com.zola.bmi.C4.ScoreAssertionC4.html"/>
-    <hyperlink ref="A38" r:id="rId37" display="language-change/bmi/com.zola.bmi.C4.ScoreAssertionTextC4.html"/>
-    <hyperlink ref="A39" r:id="rId38" display="language-change/bmi/com.zola.bmi.C4.ScoreCalcC4.html"/>
-    <hyperlink ref="A40" r:id="rId39" display="language-change/bmi/com.zola.bmi.C4.UIExistsTestC4.html"/>
-    <hyperlink ref="A41" r:id="rId40" display="language-change/bmi/com.zola.bmi.C4.UITextAssertC4.html"/>
-    <hyperlink ref="A42" r:id="rId41" display="language-change/bmi/com.zola.bmi.C5.ChangeMetricsInputC5.html"/>
-    <hyperlink ref="A43" r:id="rId42" display="language-change/bmi/com.zola.bmi.C5.ChangeScoreC5.html"/>
-    <hyperlink ref="A44" r:id="rId43" display="language-change/bmi/com.zola.bmi.C5.InputDataC5.html"/>
-    <hyperlink ref="A45" r:id="rId44" display="language-change/bmi/com.zola.bmi.C5.MixedMetricsC5.html"/>
-    <hyperlink ref="A46" r:id="rId45" display="language-change/bmi/com.zola.bmi.C5.MixedScoreC5.html"/>
-    <hyperlink ref="A47" r:id="rId46" display="language-change/bmi/com.zola.bmi.C5.ScoreAssertC5.html"/>
-    <hyperlink ref="A48" r:id="rId47" display="language-change/bmi/com.zola.bmi.C5.ScoreCalcC5.html"/>
-    <hyperlink ref="A49" r:id="rId48" display="language-change/bmi/com.zola.bmi.C5.UIAssertC5.html"/>
-    <hyperlink ref="A50" r:id="rId49" display="language-change/bmi/com.zola.bmi.C5.UIExistC5.html"/>
-    <hyperlink ref="A51" r:id="rId50" display="language-change/bmi/com.zola.bmi.C5.UITextAssertC5.html"/>
-    <hyperlink ref="A52" r:id="rId51" display="language-change/bmi/com.zola.bmi.C6.ChangeMetricsInputC6.html"/>
-    <hyperlink ref="A53" r:id="rId52" display="language-change/bmi/com.zola.bmi.C6.ChangeScoreC6.html"/>
-    <hyperlink ref="A54" r:id="rId53" display="language-change/bmi/com.zola.bmi.C6.InputDataC6.html"/>
-    <hyperlink ref="A55" r:id="rId54" display="language-change/bmi/com.zola.bmi.C6.MixedMetricsC6.html"/>
-    <hyperlink ref="A56" r:id="rId55" display="language-change/bmi/com.zola.bmi.C6.MixedScoreC6.html"/>
-    <hyperlink ref="A57" r:id="rId56" display="language-change/bmi/com.zola.bmi.C6.ScoreAssertTextC6.html"/>
-    <hyperlink ref="A58" r:id="rId57" display="language-change/bmi/com.zola.bmi.C6.ScoreCalcC6.html"/>
-    <hyperlink ref="A59" r:id="rId58" display="language-change/bmi/com.zola.bmi.C6.UIAssertC6.html"/>
-    <hyperlink ref="A60" r:id="rId59" display="language-change/bmi/com.zola.bmi.C6.UIExistsC6.html"/>
-    <hyperlink ref="A61" r:id="rId60" display="language-change/bmi/com.zola.bmi.C6.UITextAssertC6.html"/>
-    <hyperlink ref="G2" r:id="rId61" display="language-change/bmi/com.zola.bmi.C1.html"/>
-    <hyperlink ref="G3" r:id="rId62" display="language-change/bmi/com.zola.bmi.C2.html"/>
-    <hyperlink ref="G4" r:id="rId63" display="language-change/bmi/com.zola.bmi.C3.html"/>
-    <hyperlink ref="G5" r:id="rId64" display="language-change/bmi/com.zola.bmi.C4.html"/>
-    <hyperlink ref="G6" r:id="rId65" display="language-change/bmi/com.zola.bmi.C5.html"/>
-    <hyperlink ref="G7" r:id="rId66" display="language-change/bmi/com.zola.bmi.C6.html"/>
+    <hyperlink ref="A2" r:id="rId1" display="language-change/bmi/com.zola.bmi.C1.ChangeMetricInputC1.html" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="language-change/bmi/com.zola.bmi.C1.ChangeScoreC1.html" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="language-change/bmi/com.zola.bmi.C1.InputDataTestC1.html" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="language-change/bmi/com.zola.bmi.C1.MixedMetricsC1.html" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="language-change/bmi/com.zola.bmi.C1.MixedScoreC1.html" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="language-change/bmi/com.zola.bmi.C1.ScoreAssertionC1.html" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="language-change/bmi/com.zola.bmi.C1.ScoreAssertionTextC1.html" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="language-change/bmi/com.zola.bmi.C1.ScoreCalcC1.html" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="language-change/bmi/com.zola.bmi.C1.UIExistsTestC1.html" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="language-change/bmi/com.zola.bmi.C1.UITextAssertC1.html" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="language-change/bmi/com.zola.bmi.C2.ChangeMetricsInputC2.html" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="language-change/bmi/com.zola.bmi.C2.ChangeScoreC2.html" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="language-change/bmi/com.zola.bmi.C2.InputDataC2.html" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="language-change/bmi/com.zola.bmi.C2.MixedMetricsC2.html" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="language-change/bmi/com.zola.bmi.C2.MixedScoreC2.html" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="language-change/bmi/com.zola.bmi.C2.ScoreAssertTextC2.html" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="language-change/bmi/com.zola.bmi.C2.ScoreCalcC2.html" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="language-change/bmi/com.zola.bmi.C2.UIAssertC2.html" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="language-change/bmi/com.zola.bmi.C2.UIExistsC2.html" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="language-change/bmi/com.zola.bmi.C2.UITextAssertC2.html" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="language-change/bmi/com.zola.bmi.C3.ChangeMetricsInputC3.html" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="language-change/bmi/com.zola.bmi.C3.ChangeScoreC3.html" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="language-change/bmi/com.zola.bmi.C3.InputDataC3.html" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="language-change/bmi/com.zola.bmi.C3.MixedMetricsC3.html" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="language-change/bmi/com.zola.bmi.C3.MixedScoreC3.html" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="language-change/bmi/com.zola.bmi.C3.ScoreAssertC3.html" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="language-change/bmi/com.zola.bmi.C3.ScoreCalcC3.html" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="language-change/bmi/com.zola.bmi.C3.UIAssertC3.html" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="language-change/bmi/com.zola.bmi.C3.UIExistsC3.html" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="language-change/bmi/com.zola.bmi.C3.UITextAssertC3.html" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="language-change/bmi/com.zola.bmi.C4.ChangeMetricInputC4.html" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="language-change/bmi/com.zola.bmi.C4.ChangeScoreC4.html" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="language-change/bmi/com.zola.bmi.C4.InputDataTestC4.html" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="language-change/bmi/com.zola.bmi.C4.MixedMetricsC4.html" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="language-change/bmi/com.zola.bmi.C4.MixedScoreC4.html" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="language-change/bmi/com.zola.bmi.C4.ScoreAssertionC4.html" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="language-change/bmi/com.zola.bmi.C4.ScoreAssertionTextC4.html" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="language-change/bmi/com.zola.bmi.C4.ScoreCalcC4.html" xr:uid="{00000000-0004-0000-0400-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="language-change/bmi/com.zola.bmi.C4.UIExistsTestC4.html" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="language-change/bmi/com.zola.bmi.C4.UITextAssertC4.html" xr:uid="{00000000-0004-0000-0400-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="language-change/bmi/com.zola.bmi.C5.ChangeMetricsInputC5.html" xr:uid="{00000000-0004-0000-0400-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="language-change/bmi/com.zola.bmi.C5.ChangeScoreC5.html" xr:uid="{00000000-0004-0000-0400-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="language-change/bmi/com.zola.bmi.C5.InputDataC5.html" xr:uid="{00000000-0004-0000-0400-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="language-change/bmi/com.zola.bmi.C5.MixedMetricsC5.html" xr:uid="{00000000-0004-0000-0400-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="language-change/bmi/com.zola.bmi.C5.MixedScoreC5.html" xr:uid="{00000000-0004-0000-0400-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="language-change/bmi/com.zola.bmi.C5.ScoreAssertC5.html" xr:uid="{00000000-0004-0000-0400-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="language-change/bmi/com.zola.bmi.C5.ScoreCalcC5.html" xr:uid="{00000000-0004-0000-0400-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="language-change/bmi/com.zola.bmi.C5.UIAssertC5.html" xr:uid="{00000000-0004-0000-0400-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="language-change/bmi/com.zola.bmi.C5.UIExistC5.html" xr:uid="{00000000-0004-0000-0400-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="language-change/bmi/com.zola.bmi.C5.UITextAssertC5.html" xr:uid="{00000000-0004-0000-0400-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="language-change/bmi/com.zola.bmi.C6.ChangeMetricsInputC6.html" xr:uid="{00000000-0004-0000-0400-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="language-change/bmi/com.zola.bmi.C6.ChangeScoreC6.html" xr:uid="{00000000-0004-0000-0400-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="language-change/bmi/com.zola.bmi.C6.InputDataC6.html" xr:uid="{00000000-0004-0000-0400-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="language-change/bmi/com.zola.bmi.C6.MixedMetricsC6.html" xr:uid="{00000000-0004-0000-0400-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="language-change/bmi/com.zola.bmi.C6.MixedScoreC6.html" xr:uid="{00000000-0004-0000-0400-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="language-change/bmi/com.zola.bmi.C6.ScoreAssertTextC6.html" xr:uid="{00000000-0004-0000-0400-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="language-change/bmi/com.zola.bmi.C6.ScoreCalcC6.html" xr:uid="{00000000-0004-0000-0400-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="language-change/bmi/com.zola.bmi.C6.UIAssertC6.html" xr:uid="{00000000-0004-0000-0400-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="language-change/bmi/com.zola.bmi.C6.UIExistsC6.html" xr:uid="{00000000-0004-0000-0400-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="language-change/bmi/com.zola.bmi.C6.UITextAssertC6.html" xr:uid="{00000000-0004-0000-0400-00003B000000}"/>
+    <hyperlink ref="G2" r:id="rId61" display="language-change/bmi/com.zola.bmi.C1.html" xr:uid="{00000000-0004-0000-0400-00003C000000}"/>
+    <hyperlink ref="G3" r:id="rId62" display="language-change/bmi/com.zola.bmi.C2.html" xr:uid="{00000000-0004-0000-0400-00003D000000}"/>
+    <hyperlink ref="G4" r:id="rId63" display="language-change/bmi/com.zola.bmi.C3.html" xr:uid="{00000000-0004-0000-0400-00003E000000}"/>
+    <hyperlink ref="G5" r:id="rId64" display="language-change/bmi/com.zola.bmi.C4.html" xr:uid="{00000000-0004-0000-0400-00003F000000}"/>
+    <hyperlink ref="G6" r:id="rId65" display="language-change/bmi/com.zola.bmi.C5.html" xr:uid="{00000000-0004-0000-0400-000040000000}"/>
+    <hyperlink ref="G7" r:id="rId66" display="language-change/bmi/com.zola.bmi.C6.html" xr:uid="{00000000-0004-0000-0400-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D61" sqref="B2:D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10509,6 +10397,10 @@
       <c r="D8" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="K8" s="35">
+        <f>AVERAGE(K2:K7)</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="17">
       <c r="A9" s="1" t="s">
@@ -11254,83 +11146,83 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="language-change/editor/org.billthefarmer.editor.C1.ChangeSizeC1.html"/>
-    <hyperlink ref="A3" r:id="rId2" display="language-change/editor/org.billthefarmer.editor.C1.ChangeThemeC1.html"/>
-    <hyperlink ref="A4" r:id="rId3" display="language-change/editor/org.billthefarmer.editor.C1.ChangeTypefaceC1.html"/>
-    <hyperlink ref="A5" r:id="rId4" display="language-change/editor/org.billthefarmer.editor.C1.EditTextC1.html"/>
-    <hyperlink ref="A6" r:id="rId5" display="language-change/editor/org.billthefarmer.editor.C1.MainAssertC1.html"/>
-    <hyperlink ref="A7" r:id="rId6" display="language-change/editor/org.billthefarmer.editor.C1.MenuAssertC1.html"/>
-    <hyperlink ref="A8" r:id="rId7" display="language-change/editor/org.billthefarmer.editor.C1.NewTxtC1.html"/>
-    <hyperlink ref="A9" r:id="rId8" display="language-change/editor/org.billthefarmer.editor.C1.OpenRecentC1.html"/>
-    <hyperlink ref="A10" r:id="rId9" display="language-change/editor/org.billthefarmer.editor.C1.OtherSettingsC1.html"/>
-    <hyperlink ref="A11" r:id="rId10" display="language-change/editor/org.billthefarmer.editor.C1.TextSizeC1.html"/>
-    <hyperlink ref="A12" r:id="rId11" display="language-change/editor/org.billthefarmer.editor.C2.ChangeSizeC2.html"/>
-    <hyperlink ref="A13" r:id="rId12" display="language-change/editor/org.billthefarmer.editor.C2.ChangeThemeC2.html"/>
-    <hyperlink ref="A14" r:id="rId13" display="language-change/editor/org.billthefarmer.editor.C2.ChangeTypefaceC2.html"/>
-    <hyperlink ref="A15" r:id="rId14" display="language-change/editor/org.billthefarmer.editor.C2.EditTextC2.html"/>
-    <hyperlink ref="A16" r:id="rId15" display="language-change/editor/org.billthefarmer.editor.C2.MainAssertC2.html"/>
-    <hyperlink ref="A17" r:id="rId16" display="language-change/editor/org.billthefarmer.editor.C2.MenuAssertC2.html"/>
-    <hyperlink ref="A18" r:id="rId17" display="language-change/editor/org.billthefarmer.editor.C2.NewTxtC2.html"/>
-    <hyperlink ref="A19" r:id="rId18" display="language-change/editor/org.billthefarmer.editor.C2.OpenRecentC2.html"/>
-    <hyperlink ref="A20" r:id="rId19" display="language-change/editor/org.billthefarmer.editor.C2.OtherSettingsC2.html"/>
-    <hyperlink ref="A21" r:id="rId20" display="language-change/editor/org.billthefarmer.editor.C2.TextSizeC2.html"/>
-    <hyperlink ref="A22" r:id="rId21" display="language-change/editor/org.billthefarmer.editor.C3.ChangeSizeC3.html"/>
-    <hyperlink ref="A23" r:id="rId22" display="language-change/editor/org.billthefarmer.editor.C3.ChangeThemeC3.html"/>
-    <hyperlink ref="A24" r:id="rId23" display="language-change/editor/org.billthefarmer.editor.C3.ChangeTypefaceC3.html"/>
-    <hyperlink ref="A25" r:id="rId24" display="language-change/editor/org.billthefarmer.editor.C3.EditTextC3.html"/>
-    <hyperlink ref="A26" r:id="rId25" display="language-change/editor/org.billthefarmer.editor.C3.MainAssertC3.html"/>
-    <hyperlink ref="A27" r:id="rId26" display="language-change/editor/org.billthefarmer.editor.C3.MenuAssertC3.html"/>
-    <hyperlink ref="A28" r:id="rId27" display="language-change/editor/org.billthefarmer.editor.C3.NewTxtC3.html"/>
-    <hyperlink ref="A29" r:id="rId28" display="language-change/editor/org.billthefarmer.editor.C3.OpenRecentC3.html"/>
-    <hyperlink ref="A30" r:id="rId29" display="language-change/editor/org.billthefarmer.editor.C3.OtherSettingsC3.html"/>
-    <hyperlink ref="A31" r:id="rId30" display="language-change/editor/org.billthefarmer.editor.C3.TextSizeC3.html"/>
-    <hyperlink ref="A32" r:id="rId31" display="language-change/editor/org.billthefarmer.editor.C4.ChangeSizeC4.html"/>
-    <hyperlink ref="A33" r:id="rId32" display="language-change/editor/org.billthefarmer.editor.C4.ChangeThemeC4.html"/>
-    <hyperlink ref="A34" r:id="rId33" display="language-change/editor/org.billthefarmer.editor.C4.ChangeTypefaceC4.html"/>
-    <hyperlink ref="A35" r:id="rId34" display="language-change/editor/org.billthefarmer.editor.C4.EditTextC4.html"/>
-    <hyperlink ref="A36" r:id="rId35" display="language-change/editor/org.billthefarmer.editor.C4.MainAssertC4.html"/>
-    <hyperlink ref="A37" r:id="rId36" display="language-change/editor/org.billthefarmer.editor.C4.MenuAssertC4.html"/>
-    <hyperlink ref="A38" r:id="rId37" display="language-change/editor/org.billthefarmer.editor.C4.NewTxtC4.html"/>
-    <hyperlink ref="A39" r:id="rId38" display="language-change/editor/org.billthefarmer.editor.C4.OpenRecentC4.html"/>
-    <hyperlink ref="A40" r:id="rId39" display="language-change/editor/org.billthefarmer.editor.C4.OtherSettingsC4.html"/>
-    <hyperlink ref="A41" r:id="rId40" display="language-change/editor/org.billthefarmer.editor.C4.TextSizeC4.html"/>
-    <hyperlink ref="A42" r:id="rId41" display="language-change/editor/org.billthefarmer.editor.C5.ChangeSizeC5.html"/>
-    <hyperlink ref="A43" r:id="rId42" display="language-change/editor/org.billthefarmer.editor.C5.ChangeThemeC5.html"/>
-    <hyperlink ref="A44" r:id="rId43" display="language-change/editor/org.billthefarmer.editor.C5.ChangeTypefaceC5.html"/>
-    <hyperlink ref="A45" r:id="rId44" display="language-change/editor/org.billthefarmer.editor.C5.EditTextC5.html"/>
-    <hyperlink ref="A46" r:id="rId45" display="language-change/editor/org.billthefarmer.editor.C5.MainAssertC5.html"/>
-    <hyperlink ref="A47" r:id="rId46" display="language-change/editor/org.billthefarmer.editor.C5.MenuAssertC5.html"/>
-    <hyperlink ref="A48" r:id="rId47" display="language-change/editor/org.billthefarmer.editor.C5.NewTxtC5.html"/>
-    <hyperlink ref="A49" r:id="rId48" display="language-change/editor/org.billthefarmer.editor.C5.OpenRecentC5.html"/>
-    <hyperlink ref="A50" r:id="rId49" display="language-change/editor/org.billthefarmer.editor.C5.OtherSettingsC5.html"/>
-    <hyperlink ref="A51" r:id="rId50" display="language-change/editor/org.billthefarmer.editor.C5.TextSizeC5.html"/>
-    <hyperlink ref="A52" r:id="rId51" display="language-change/editor/org.billthefarmer.editor.C6.ChangeSizeC6.html"/>
-    <hyperlink ref="A53" r:id="rId52" display="language-change/editor/org.billthefarmer.editor.C6.ChangeThemeC6.html"/>
-    <hyperlink ref="A54" r:id="rId53" display="language-change/editor/org.billthefarmer.editor.C6.ChangeTypefaceC6.html"/>
-    <hyperlink ref="A55" r:id="rId54" display="language-change/editor/org.billthefarmer.editor.C6.EditTextC6.html"/>
-    <hyperlink ref="A56" r:id="rId55" display="language-change/editor/org.billthefarmer.editor.C6.MainAssertC6.html"/>
-    <hyperlink ref="A57" r:id="rId56" display="language-change/editor/org.billthefarmer.editor.C6.MenuAssertC6.html"/>
-    <hyperlink ref="A58" r:id="rId57" display="language-change/editor/org.billthefarmer.editor.C6.NewTxtC6.html"/>
-    <hyperlink ref="A59" r:id="rId58" display="language-change/editor/org.billthefarmer.editor.C6.OpenRecentC6.html"/>
-    <hyperlink ref="A60" r:id="rId59" display="language-change/editor/org.billthefarmer.editor.C6.OtherSettingsC6.html"/>
-    <hyperlink ref="A61" r:id="rId60" display="language-change/editor/org.billthefarmer.editor.C6.TextSizeC6.html"/>
-    <hyperlink ref="G2" r:id="rId61" display="language-change/editor/org.billthefarmer.editor.C1.html"/>
-    <hyperlink ref="G3" r:id="rId62" display="language-change/editor/org.billthefarmer.editor.C2.html"/>
-    <hyperlink ref="G4" r:id="rId63" display="language-change/editor/org.billthefarmer.editor.C3.html"/>
-    <hyperlink ref="G5" r:id="rId64" display="language-change/editor/org.billthefarmer.editor.C4.html"/>
-    <hyperlink ref="G6" r:id="rId65" display="language-change/editor/org.billthefarmer.editor.C5.html"/>
-    <hyperlink ref="G7" r:id="rId66" display="language-change/editor/org.billthefarmer.editor.C6.html"/>
+    <hyperlink ref="A2" r:id="rId1" display="language-change/editor/org.billthefarmer.editor.C1.ChangeSizeC1.html" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="language-change/editor/org.billthefarmer.editor.C1.ChangeThemeC1.html" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="language-change/editor/org.billthefarmer.editor.C1.ChangeTypefaceC1.html" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="language-change/editor/org.billthefarmer.editor.C1.EditTextC1.html" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="language-change/editor/org.billthefarmer.editor.C1.MainAssertC1.html" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="language-change/editor/org.billthefarmer.editor.C1.MenuAssertC1.html" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="language-change/editor/org.billthefarmer.editor.C1.NewTxtC1.html" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="language-change/editor/org.billthefarmer.editor.C1.OpenRecentC1.html" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="language-change/editor/org.billthefarmer.editor.C1.OtherSettingsC1.html" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="language-change/editor/org.billthefarmer.editor.C1.TextSizeC1.html" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="language-change/editor/org.billthefarmer.editor.C2.ChangeSizeC2.html" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="language-change/editor/org.billthefarmer.editor.C2.ChangeThemeC2.html" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="language-change/editor/org.billthefarmer.editor.C2.ChangeTypefaceC2.html" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="language-change/editor/org.billthefarmer.editor.C2.EditTextC2.html" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="language-change/editor/org.billthefarmer.editor.C2.MainAssertC2.html" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="language-change/editor/org.billthefarmer.editor.C2.MenuAssertC2.html" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="language-change/editor/org.billthefarmer.editor.C2.NewTxtC2.html" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="language-change/editor/org.billthefarmer.editor.C2.OpenRecentC2.html" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="language-change/editor/org.billthefarmer.editor.C2.OtherSettingsC2.html" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="language-change/editor/org.billthefarmer.editor.C2.TextSizeC2.html" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="language-change/editor/org.billthefarmer.editor.C3.ChangeSizeC3.html" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="language-change/editor/org.billthefarmer.editor.C3.ChangeThemeC3.html" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="language-change/editor/org.billthefarmer.editor.C3.ChangeTypefaceC3.html" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="language-change/editor/org.billthefarmer.editor.C3.EditTextC3.html" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="language-change/editor/org.billthefarmer.editor.C3.MainAssertC3.html" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="language-change/editor/org.billthefarmer.editor.C3.MenuAssertC3.html" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="language-change/editor/org.billthefarmer.editor.C3.NewTxtC3.html" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="language-change/editor/org.billthefarmer.editor.C3.OpenRecentC3.html" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="language-change/editor/org.billthefarmer.editor.C3.OtherSettingsC3.html" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="language-change/editor/org.billthefarmer.editor.C3.TextSizeC3.html" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="language-change/editor/org.billthefarmer.editor.C4.ChangeSizeC4.html" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="language-change/editor/org.billthefarmer.editor.C4.ChangeThemeC4.html" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="language-change/editor/org.billthefarmer.editor.C4.ChangeTypefaceC4.html" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="language-change/editor/org.billthefarmer.editor.C4.EditTextC4.html" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="language-change/editor/org.billthefarmer.editor.C4.MainAssertC4.html" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="language-change/editor/org.billthefarmer.editor.C4.MenuAssertC4.html" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="language-change/editor/org.billthefarmer.editor.C4.NewTxtC4.html" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="language-change/editor/org.billthefarmer.editor.C4.OpenRecentC4.html" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="language-change/editor/org.billthefarmer.editor.C4.OtherSettingsC4.html" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="language-change/editor/org.billthefarmer.editor.C4.TextSizeC4.html" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="language-change/editor/org.billthefarmer.editor.C5.ChangeSizeC5.html" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="language-change/editor/org.billthefarmer.editor.C5.ChangeThemeC5.html" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="language-change/editor/org.billthefarmer.editor.C5.ChangeTypefaceC5.html" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="language-change/editor/org.billthefarmer.editor.C5.EditTextC5.html" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="language-change/editor/org.billthefarmer.editor.C5.MainAssertC5.html" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="language-change/editor/org.billthefarmer.editor.C5.MenuAssertC5.html" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="language-change/editor/org.billthefarmer.editor.C5.NewTxtC5.html" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="language-change/editor/org.billthefarmer.editor.C5.OpenRecentC5.html" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="language-change/editor/org.billthefarmer.editor.C5.OtherSettingsC5.html" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="language-change/editor/org.billthefarmer.editor.C5.TextSizeC5.html" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="language-change/editor/org.billthefarmer.editor.C6.ChangeSizeC6.html" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="language-change/editor/org.billthefarmer.editor.C6.ChangeThemeC6.html" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="language-change/editor/org.billthefarmer.editor.C6.ChangeTypefaceC6.html" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="language-change/editor/org.billthefarmer.editor.C6.EditTextC6.html" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="language-change/editor/org.billthefarmer.editor.C6.MainAssertC6.html" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="language-change/editor/org.billthefarmer.editor.C6.MenuAssertC6.html" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="language-change/editor/org.billthefarmer.editor.C6.NewTxtC6.html" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="language-change/editor/org.billthefarmer.editor.C6.OpenRecentC6.html" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="language-change/editor/org.billthefarmer.editor.C6.OtherSettingsC6.html" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="language-change/editor/org.billthefarmer.editor.C6.TextSizeC6.html" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
+    <hyperlink ref="G2" r:id="rId61" display="language-change/editor/org.billthefarmer.editor.C1.html" xr:uid="{00000000-0004-0000-0500-00003C000000}"/>
+    <hyperlink ref="G3" r:id="rId62" display="language-change/editor/org.billthefarmer.editor.C2.html" xr:uid="{00000000-0004-0000-0500-00003D000000}"/>
+    <hyperlink ref="G4" r:id="rId63" display="language-change/editor/org.billthefarmer.editor.C3.html" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
+    <hyperlink ref="G5" r:id="rId64" display="language-change/editor/org.billthefarmer.editor.C4.html" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
+    <hyperlink ref="G6" r:id="rId65" display="language-change/editor/org.billthefarmer.editor.C5.html" xr:uid="{00000000-0004-0000-0500-000040000000}"/>
+    <hyperlink ref="G7" r:id="rId66" display="language-change/editor/org.billthefarmer.editor.C6.html" xr:uid="{00000000-0004-0000-0500-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11555,6 +11447,10 @@
       <c r="D8" s="8" t="s">
         <v>146</v>
       </c>
+      <c r="K8" s="35">
+        <f>AVERAGE(K2:K7)</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="17">
       <c r="A9" s="1" t="s">
@@ -12300,79 +12196,79 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="language-change/primary/com.quaap.primary.C1.AddDeleteUserC1.html"/>
-    <hyperlink ref="A3" r:id="rId2" display="language-change/primary/com.quaap.primary.C1.BrowseSubjectsC1.html"/>
-    <hyperlink ref="A4" r:id="rId3" display="language-change/primary/com.quaap.primary.C1.CreateUserC1.html"/>
-    <hyperlink ref="A5" r:id="rId4" display="language-change/primary/com.quaap.primary.C1.KeyboardSettingsC1.html"/>
-    <hyperlink ref="A6" r:id="rId5" display="language-change/primary/com.quaap.primary.C1.LottaGameC1.html"/>
-    <hyperlink ref="A7" r:id="rId6" display="language-change/primary/com.quaap.primary.C1.MathGameC1.html"/>
-    <hyperlink ref="A8" r:id="rId7" display="language-change/primary/com.quaap.primary.C1.MathMenuC1.html"/>
-    <hyperlink ref="A9" r:id="rId8" display="language-change/primary/com.quaap.primary.C1.NewUserIconC1.html"/>
-    <hyperlink ref="A10" r:id="rId9" display="language-change/primary/com.quaap.primary.C1.SortGameC1.html"/>
-    <hyperlink ref="A11" r:id="rId10" display="language-change/primary/com.quaap.primary.C1.ViewScoreC1.html"/>
-    <hyperlink ref="A12" r:id="rId11" display="language-change/primary/com.quaap.primary.C2.AddDeleteUserC2.html"/>
-    <hyperlink ref="A13" r:id="rId12" display="language-change/primary/com.quaap.primary.C2.BrowseSubjectsC2.html"/>
-    <hyperlink ref="A14" r:id="rId13" display="language-change/primary/com.quaap.primary.C2.CreateUserC2.html"/>
-    <hyperlink ref="A15" r:id="rId14" display="language-change/primary/com.quaap.primary.C2.KeyboardSettingsC2.html"/>
-    <hyperlink ref="A16" r:id="rId15" display="language-change/primary/com.quaap.primary.C2.LottaGameC2.html"/>
-    <hyperlink ref="A17" r:id="rId16" display="language-change/primary/com.quaap.primary.C2.MathGameC2.html"/>
-    <hyperlink ref="A18" r:id="rId17" display="language-change/primary/com.quaap.primary.C2.MathMenuC2.html"/>
-    <hyperlink ref="A19" r:id="rId18" display="language-change/primary/com.quaap.primary.C2.NewUserIconC2.html"/>
-    <hyperlink ref="A20" r:id="rId19" display="language-change/primary/com.quaap.primary.C2.SortGameC2.html"/>
-    <hyperlink ref="A21" r:id="rId20" display="language-change/primary/com.quaap.primary.C2.ViewScoreC2.html"/>
-    <hyperlink ref="A22" r:id="rId21" display="language-change/primary/com.quaap.primary.C3.AddDeleteUserC3.html"/>
-    <hyperlink ref="A23" r:id="rId22" display="language-change/primary/com.quaap.primary.C3.BrowseSubjectsC3.html"/>
-    <hyperlink ref="A24" r:id="rId23" display="language-change/primary/com.quaap.primary.C3.CreateUserC3.html"/>
-    <hyperlink ref="A25" r:id="rId24" display="language-change/primary/com.quaap.primary.C3.KeyboardSettingsC3.html"/>
-    <hyperlink ref="A26" r:id="rId25" display="language-change/primary/com.quaap.primary.C3.LottaGameC3.html"/>
-    <hyperlink ref="A27" r:id="rId26" display="language-change/primary/com.quaap.primary.C3.MathGameC3.html"/>
-    <hyperlink ref="A28" r:id="rId27" display="language-change/primary/com.quaap.primary.C3.MathMenuC3.html"/>
-    <hyperlink ref="A29" r:id="rId28" display="language-change/primary/com.quaap.primary.C3.NewUserIconC3.html"/>
-    <hyperlink ref="A30" r:id="rId29" display="language-change/primary/com.quaap.primary.C3.SortGameC3.html"/>
-    <hyperlink ref="A31" r:id="rId30" display="language-change/primary/com.quaap.primary.C3.ViewScoreC3.html"/>
-    <hyperlink ref="A32" r:id="rId31" display="language-change/primary/com.quaap.primary.C4.AddDeleteUserC4.html"/>
-    <hyperlink ref="A33" r:id="rId32" display="language-change/primary/com.quaap.primary.C4.BrowseSubjectsC4.html"/>
-    <hyperlink ref="A34" r:id="rId33" display="language-change/primary/com.quaap.primary.C4.CreateUserC4.html"/>
-    <hyperlink ref="A35" r:id="rId34" display="language-change/primary/com.quaap.primary.C4.KeyboardSettingsC4.html"/>
-    <hyperlink ref="A36" r:id="rId35" display="language-change/primary/com.quaap.primary.C4.LottaGameC4.html"/>
-    <hyperlink ref="A37" r:id="rId36" display="language-change/primary/com.quaap.primary.C4.MathGameC4.html"/>
-    <hyperlink ref="A38" r:id="rId37" display="language-change/primary/com.quaap.primary.C4.MathMenuC4.html"/>
-    <hyperlink ref="A39" r:id="rId38" display="language-change/primary/com.quaap.primary.C4.NewUserIconC4.html"/>
-    <hyperlink ref="A40" r:id="rId39" display="language-change/primary/com.quaap.primary.C4.SortGameC4.html"/>
-    <hyperlink ref="A41" r:id="rId40" display="language-change/primary/com.quaap.primary.C4.ViewScoreC4.html"/>
-    <hyperlink ref="A42" r:id="rId41" display="language-change/primary/com.quaap.primary.C5.AddDeleteUserC5.html"/>
-    <hyperlink ref="A43" r:id="rId42" display="language-change/primary/com.quaap.primary.C5.BrowseSubjectsC5.html"/>
-    <hyperlink ref="A44" r:id="rId43" display="language-change/primary/com.quaap.primary.C5.CreateUserC5.html"/>
-    <hyperlink ref="A45" r:id="rId44" display="language-change/primary/com.quaap.primary.C5.KeyboardSettingsC5.html"/>
-    <hyperlink ref="A46" r:id="rId45" display="language-change/primary/com.quaap.primary.C5.LottaGameC5.html"/>
-    <hyperlink ref="A47" r:id="rId46" display="language-change/primary/com.quaap.primary.C5.MathGameC5.html"/>
-    <hyperlink ref="A48" r:id="rId47" display="language-change/primary/com.quaap.primary.C5.MathMenuC5.html"/>
-    <hyperlink ref="A49" r:id="rId48" display="language-change/primary/com.quaap.primary.C5.NewUserIconC5.html"/>
-    <hyperlink ref="A50" r:id="rId49" display="language-change/primary/com.quaap.primary.C5.SortGameC5.html"/>
-    <hyperlink ref="A51" r:id="rId50" display="language-change/primary/com.quaap.primary.C5.ViewScoreC5.html"/>
-    <hyperlink ref="A52" r:id="rId51" display="language-change/primary/com.quaap.primary.C6.AddDeleteUserC6.html"/>
-    <hyperlink ref="A53" r:id="rId52" display="language-change/primary/com.quaap.primary.C6.BrowseSubjectsC6.html"/>
-    <hyperlink ref="A54" r:id="rId53" display="language-change/primary/com.quaap.primary.C6.CreateUserC6.html"/>
-    <hyperlink ref="A55" r:id="rId54" display="language-change/primary/com.quaap.primary.C6.KeyboardSettingsC6.html"/>
-    <hyperlink ref="A56" r:id="rId55" display="language-change/primary/com.quaap.primary.C6.LottaGameC6.html"/>
-    <hyperlink ref="A57" r:id="rId56" display="language-change/primary/com.quaap.primary.C6.MathGameC6.html"/>
-    <hyperlink ref="A58" r:id="rId57" display="language-change/primary/com.quaap.primary.C6.MathMenuC6.html"/>
-    <hyperlink ref="A59" r:id="rId58" display="language-change/primary/com.quaap.primary.C6.NewUserIconC6.html"/>
-    <hyperlink ref="A60" r:id="rId59" display="language-change/primary/com.quaap.primary.C6.SortGameC6.html"/>
-    <hyperlink ref="A61" r:id="rId60" display="language-change/primary/com.quaap.primary.C6.ViewScoreC6.html"/>
-    <hyperlink ref="G2" r:id="rId61" display="language-change/primary/com.quaap.primary.C1.html"/>
-    <hyperlink ref="G3" r:id="rId62" display="language-change/primary/com.quaap.primary.C2.html"/>
-    <hyperlink ref="G4" r:id="rId63" display="language-change/primary/com.quaap.primary.C3.html"/>
-    <hyperlink ref="G5" r:id="rId64" display="language-change/primary/com.quaap.primary.C4.html"/>
-    <hyperlink ref="G6" r:id="rId65" display="language-change/primary/com.quaap.primary.C5.html"/>
-    <hyperlink ref="G7" r:id="rId66" display="language-change/primary/com.quaap.primary.C6.html"/>
+    <hyperlink ref="A2" r:id="rId1" display="language-change/primary/com.quaap.primary.C1.AddDeleteUserC1.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" display="language-change/primary/com.quaap.primary.C1.BrowseSubjectsC1.html" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" display="language-change/primary/com.quaap.primary.C1.CreateUserC1.html" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" display="language-change/primary/com.quaap.primary.C1.KeyboardSettingsC1.html" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" display="language-change/primary/com.quaap.primary.C1.LottaGameC1.html" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" display="language-change/primary/com.quaap.primary.C1.MathGameC1.html" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" display="language-change/primary/com.quaap.primary.C1.MathMenuC1.html" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" display="language-change/primary/com.quaap.primary.C1.NewUserIconC1.html" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" display="language-change/primary/com.quaap.primary.C1.SortGameC1.html" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" display="language-change/primary/com.quaap.primary.C1.ViewScoreC1.html" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" display="language-change/primary/com.quaap.primary.C2.AddDeleteUserC2.html" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" display="language-change/primary/com.quaap.primary.C2.BrowseSubjectsC2.html" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" display="language-change/primary/com.quaap.primary.C2.CreateUserC2.html" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" display="language-change/primary/com.quaap.primary.C2.KeyboardSettingsC2.html" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" display="language-change/primary/com.quaap.primary.C2.LottaGameC2.html" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" display="language-change/primary/com.quaap.primary.C2.MathGameC2.html" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" display="language-change/primary/com.quaap.primary.C2.MathMenuC2.html" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" display="language-change/primary/com.quaap.primary.C2.NewUserIconC2.html" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" display="language-change/primary/com.quaap.primary.C2.SortGameC2.html" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" display="language-change/primary/com.quaap.primary.C2.ViewScoreC2.html" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" display="language-change/primary/com.quaap.primary.C3.AddDeleteUserC3.html" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" display="language-change/primary/com.quaap.primary.C3.BrowseSubjectsC3.html" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" display="language-change/primary/com.quaap.primary.C3.CreateUserC3.html" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" display="language-change/primary/com.quaap.primary.C3.KeyboardSettingsC3.html" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" display="language-change/primary/com.quaap.primary.C3.LottaGameC3.html" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" display="language-change/primary/com.quaap.primary.C3.MathGameC3.html" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" display="language-change/primary/com.quaap.primary.C3.MathMenuC3.html" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
+    <hyperlink ref="A29" r:id="rId28" display="language-change/primary/com.quaap.primary.C3.NewUserIconC3.html" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
+    <hyperlink ref="A30" r:id="rId29" display="language-change/primary/com.quaap.primary.C3.SortGameC3.html" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
+    <hyperlink ref="A31" r:id="rId30" display="language-change/primary/com.quaap.primary.C3.ViewScoreC3.html" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
+    <hyperlink ref="A32" r:id="rId31" display="language-change/primary/com.quaap.primary.C4.AddDeleteUserC4.html" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
+    <hyperlink ref="A33" r:id="rId32" display="language-change/primary/com.quaap.primary.C4.BrowseSubjectsC4.html" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
+    <hyperlink ref="A34" r:id="rId33" display="language-change/primary/com.quaap.primary.C4.CreateUserC4.html" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
+    <hyperlink ref="A35" r:id="rId34" display="language-change/primary/com.quaap.primary.C4.KeyboardSettingsC4.html" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
+    <hyperlink ref="A36" r:id="rId35" display="language-change/primary/com.quaap.primary.C4.LottaGameC4.html" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
+    <hyperlink ref="A37" r:id="rId36" display="language-change/primary/com.quaap.primary.C4.MathGameC4.html" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
+    <hyperlink ref="A38" r:id="rId37" display="language-change/primary/com.quaap.primary.C4.MathMenuC4.html" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
+    <hyperlink ref="A39" r:id="rId38" display="language-change/primary/com.quaap.primary.C4.NewUserIconC4.html" xr:uid="{00000000-0004-0000-0600-000025000000}"/>
+    <hyperlink ref="A40" r:id="rId39" display="language-change/primary/com.quaap.primary.C4.SortGameC4.html" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
+    <hyperlink ref="A41" r:id="rId40" display="language-change/primary/com.quaap.primary.C4.ViewScoreC4.html" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
+    <hyperlink ref="A42" r:id="rId41" display="language-change/primary/com.quaap.primary.C5.AddDeleteUserC5.html" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
+    <hyperlink ref="A43" r:id="rId42" display="language-change/primary/com.quaap.primary.C5.BrowseSubjectsC5.html" xr:uid="{00000000-0004-0000-0600-000029000000}"/>
+    <hyperlink ref="A44" r:id="rId43" display="language-change/primary/com.quaap.primary.C5.CreateUserC5.html" xr:uid="{00000000-0004-0000-0600-00002A000000}"/>
+    <hyperlink ref="A45" r:id="rId44" display="language-change/primary/com.quaap.primary.C5.KeyboardSettingsC5.html" xr:uid="{00000000-0004-0000-0600-00002B000000}"/>
+    <hyperlink ref="A46" r:id="rId45" display="language-change/primary/com.quaap.primary.C5.LottaGameC5.html" xr:uid="{00000000-0004-0000-0600-00002C000000}"/>
+    <hyperlink ref="A47" r:id="rId46" display="language-change/primary/com.quaap.primary.C5.MathGameC5.html" xr:uid="{00000000-0004-0000-0600-00002D000000}"/>
+    <hyperlink ref="A48" r:id="rId47" display="language-change/primary/com.quaap.primary.C5.MathMenuC5.html" xr:uid="{00000000-0004-0000-0600-00002E000000}"/>
+    <hyperlink ref="A49" r:id="rId48" display="language-change/primary/com.quaap.primary.C5.NewUserIconC5.html" xr:uid="{00000000-0004-0000-0600-00002F000000}"/>
+    <hyperlink ref="A50" r:id="rId49" display="language-change/primary/com.quaap.primary.C5.SortGameC5.html" xr:uid="{00000000-0004-0000-0600-000030000000}"/>
+    <hyperlink ref="A51" r:id="rId50" display="language-change/primary/com.quaap.primary.C5.ViewScoreC5.html" xr:uid="{00000000-0004-0000-0600-000031000000}"/>
+    <hyperlink ref="A52" r:id="rId51" display="language-change/primary/com.quaap.primary.C6.AddDeleteUserC6.html" xr:uid="{00000000-0004-0000-0600-000032000000}"/>
+    <hyperlink ref="A53" r:id="rId52" display="language-change/primary/com.quaap.primary.C6.BrowseSubjectsC6.html" xr:uid="{00000000-0004-0000-0600-000033000000}"/>
+    <hyperlink ref="A54" r:id="rId53" display="language-change/primary/com.quaap.primary.C6.CreateUserC6.html" xr:uid="{00000000-0004-0000-0600-000034000000}"/>
+    <hyperlink ref="A55" r:id="rId54" display="language-change/primary/com.quaap.primary.C6.KeyboardSettingsC6.html" xr:uid="{00000000-0004-0000-0600-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" display="language-change/primary/com.quaap.primary.C6.LottaGameC6.html" xr:uid="{00000000-0004-0000-0600-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId56" display="language-change/primary/com.quaap.primary.C6.MathGameC6.html" xr:uid="{00000000-0004-0000-0600-000037000000}"/>
+    <hyperlink ref="A58" r:id="rId57" display="language-change/primary/com.quaap.primary.C6.MathMenuC6.html" xr:uid="{00000000-0004-0000-0600-000038000000}"/>
+    <hyperlink ref="A59" r:id="rId58" display="language-change/primary/com.quaap.primary.C6.NewUserIconC6.html" xr:uid="{00000000-0004-0000-0600-000039000000}"/>
+    <hyperlink ref="A60" r:id="rId59" display="language-change/primary/com.quaap.primary.C6.SortGameC6.html" xr:uid="{00000000-0004-0000-0600-00003A000000}"/>
+    <hyperlink ref="A61" r:id="rId60" display="language-change/primary/com.quaap.primary.C6.ViewScoreC6.html" xr:uid="{00000000-0004-0000-0600-00003B000000}"/>
+    <hyperlink ref="G2" r:id="rId61" display="language-change/primary/com.quaap.primary.C1.html" xr:uid="{00000000-0004-0000-0600-00003C000000}"/>
+    <hyperlink ref="G3" r:id="rId62" display="language-change/primary/com.quaap.primary.C2.html" xr:uid="{00000000-0004-0000-0600-00003D000000}"/>
+    <hyperlink ref="G4" r:id="rId63" display="language-change/primary/com.quaap.primary.C3.html" xr:uid="{00000000-0004-0000-0600-00003E000000}"/>
+    <hyperlink ref="G5" r:id="rId64" display="language-change/primary/com.quaap.primary.C4.html" xr:uid="{00000000-0004-0000-0600-00003F000000}"/>
+    <hyperlink ref="G6" r:id="rId65" display="language-change/primary/com.quaap.primary.C5.html" xr:uid="{00000000-0004-0000-0600-000040000000}"/>
+    <hyperlink ref="G7" r:id="rId66" display="language-change/primary/com.quaap.primary.C6.html" xr:uid="{00000000-0004-0000-0600-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
@@ -12527,10 +12423,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+    <sheetView topLeftCell="A175" workbookViewId="0">
       <selection activeCell="A362" sqref="A362:C421"/>
     </sheetView>
   </sheetViews>

--- a/Results/result-language-results.xlsx
+++ b/Results/result-language-results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federicaventriglia/Documents/Universita/TESI/EspressoTests/EspressoTests/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B804F3-0CB2-0143-A0A1-AE568769896B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E6E9C7-A5B2-5D41-827D-C0F788CD87FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="860" windowWidth="19180" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="1060" windowWidth="20540" windowHeight="18260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="beecount" sheetId="3" r:id="rId1"/>
@@ -2387,7 +2387,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4730,7 +4751,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -5776,7 +5797,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6830,8 +6851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -8065,7 +8086,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9043,6 +9064,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:B61">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="language-change/counter/me.tsukanov.counter.ui.C1.AddRemoveCntC1.html" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" display="language-change/counter/me.tsukanov.counter.ui.C1.AssertCountC1.html" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -9120,7 +9151,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10172,7 +10203,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B2" sqref="B2:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11221,8 +11252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
